--- a/Stimuli Metadata/500-Stimuli-Metadata.xlsx
+++ b/Stimuli Metadata/500-Stimuli-Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarunku5/Desktop/Supp-Final/Stimuli Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarunku5/Documents/GitHub/Image-or-Information-Vis-2023/Stimuli Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B26ABF-912A-C04A-8F0D-CC26405E0125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFB91B9-A707-2343-8619-3DDF64B1C18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" activeTab="2" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Provenance and Purpose" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11542" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="420">
   <si>
     <t>Name</t>
   </si>
@@ -1381,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1398,9 +1398,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14981,7 +14978,7 @@
       <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="3">
@@ -15025,7 +15022,7 @@
       <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="3">
@@ -15069,7 +15066,7 @@
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="3">
@@ -15113,7 +15110,7 @@
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="3">
@@ -15157,7 +15154,7 @@
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="3">
@@ -15201,7 +15198,7 @@
       <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="3">
@@ -15245,7 +15242,7 @@
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="3">
@@ -15289,7 +15286,7 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="3">
@@ -15333,7 +15330,7 @@
       <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="3">
@@ -15377,7 +15374,7 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="3">
@@ -15421,7 +15418,7 @@
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I15" s="3">
@@ -15465,7 +15462,7 @@
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="3">
@@ -15509,7 +15506,7 @@
       <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I17" s="3">
@@ -15553,7 +15550,7 @@
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I18" s="3">
@@ -15597,7 +15594,7 @@
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="3">
@@ -15641,7 +15638,7 @@
       <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I20" s="3">
@@ -15685,7 +15682,7 @@
       <c r="G21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I21" s="3">
@@ -15729,7 +15726,7 @@
       <c r="G22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I22" s="3">
@@ -15773,7 +15770,7 @@
       <c r="G23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I23" s="3">
@@ -15817,7 +15814,7 @@
       <c r="G24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I24" s="3">
@@ -15861,7 +15858,7 @@
       <c r="G25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I25" s="3">
@@ -15905,7 +15902,7 @@
       <c r="G26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="3">
@@ -15949,7 +15946,7 @@
       <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="3">
@@ -15993,7 +15990,7 @@
       <c r="G28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="3">
@@ -16037,7 +16034,7 @@
       <c r="G29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="3">
@@ -16081,7 +16078,7 @@
       <c r="G30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I30" s="3">
@@ -16125,7 +16122,7 @@
       <c r="G31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I31" s="3">
@@ -16169,7 +16166,7 @@
       <c r="G32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="3">
@@ -16213,7 +16210,7 @@
       <c r="G33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I33" s="3">
@@ -16257,7 +16254,7 @@
       <c r="G34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="3">
@@ -16301,7 +16298,7 @@
       <c r="G35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="3">
@@ -16345,7 +16342,7 @@
       <c r="G36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="3">
@@ -16389,7 +16386,7 @@
       <c r="G37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I37" s="3">
@@ -16433,7 +16430,7 @@
       <c r="G38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I38" s="3">
@@ -16477,7 +16474,7 @@
       <c r="G39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I39" s="3">
@@ -16521,7 +16518,7 @@
       <c r="G40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I40" s="3">
@@ -16565,7 +16562,7 @@
       <c r="G41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="3">
@@ -16609,7 +16606,7 @@
       <c r="G42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I42" s="3">
@@ -16653,7 +16650,7 @@
       <c r="G43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I43" s="3">
@@ -16697,7 +16694,7 @@
       <c r="G44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I44" s="3">
@@ -16741,7 +16738,7 @@
       <c r="G45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I45" s="3">
@@ -16785,7 +16782,7 @@
       <c r="G46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I46" s="3">
@@ -16829,7 +16826,7 @@
       <c r="G47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I47" s="3">
@@ -16873,7 +16870,7 @@
       <c r="G48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I48" s="3">
@@ -16917,7 +16914,7 @@
       <c r="G49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="3">
@@ -16961,7 +16958,7 @@
       <c r="G50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="3">
@@ -17005,7 +17002,7 @@
       <c r="G51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I51" s="3">
@@ -17049,7 +17046,7 @@
       <c r="G52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I52" s="3">
@@ -17093,7 +17090,7 @@
       <c r="G53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I53" s="3">
@@ -17137,7 +17134,7 @@
       <c r="G54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I54" s="3">
@@ -17181,7 +17178,7 @@
       <c r="G55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I55" s="3">
@@ -17225,7 +17222,7 @@
       <c r="G56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I56" s="3">
@@ -17269,7 +17266,7 @@
       <c r="G57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I57" s="3">
@@ -17313,7 +17310,7 @@
       <c r="G58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I58" s="3">
@@ -17357,7 +17354,7 @@
       <c r="G59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I59" s="3">
@@ -17401,7 +17398,7 @@
       <c r="G60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I60" s="3">
@@ -17445,7 +17442,7 @@
       <c r="G61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I61" s="3">
@@ -17489,7 +17486,7 @@
       <c r="G62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I62" s="3">
@@ -17533,7 +17530,7 @@
       <c r="G63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I63" s="3">
@@ -17577,7 +17574,7 @@
       <c r="G64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I64" s="3">
@@ -17621,7 +17618,7 @@
       <c r="G65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I65" s="3">
@@ -17665,7 +17662,7 @@
       <c r="G66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I66" s="3">
@@ -17709,7 +17706,7 @@
       <c r="G67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I67" s="3">
@@ -17753,7 +17750,7 @@
       <c r="G68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I68" s="3">
@@ -17797,7 +17794,7 @@
       <c r="G69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I69" s="3">
@@ -17841,7 +17838,7 @@
       <c r="G70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I70" s="3">
@@ -17885,7 +17882,7 @@
       <c r="G71" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I71" s="3">
@@ -17929,7 +17926,7 @@
       <c r="G72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I72" s="3">
@@ -17973,7 +17970,7 @@
       <c r="G73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I73" s="3">
@@ -18017,7 +18014,7 @@
       <c r="G74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I74" s="3">
@@ -18061,7 +18058,7 @@
       <c r="G75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I75" s="3">
@@ -18105,7 +18102,7 @@
       <c r="G76" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I76" s="3">
@@ -18149,7 +18146,7 @@
       <c r="G77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I77" s="3">
@@ -18193,7 +18190,7 @@
       <c r="G78" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I78" s="3">
@@ -18237,7 +18234,7 @@
       <c r="G79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I79" s="3">
@@ -18281,7 +18278,7 @@
       <c r="G80" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I80" s="3">
@@ -18325,7 +18322,7 @@
       <c r="G81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I81" s="3">
@@ -18369,7 +18366,7 @@
       <c r="G82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I82" s="3">
@@ -18413,7 +18410,7 @@
       <c r="G83" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I83" s="3">
@@ -18457,7 +18454,7 @@
       <c r="G84" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I84" s="3">
@@ -18501,7 +18498,7 @@
       <c r="G85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I85" s="3">
@@ -18545,7 +18542,7 @@
       <c r="G86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I86" s="3">
@@ -18589,7 +18586,7 @@
       <c r="G87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I87" s="3">
@@ -18633,7 +18630,7 @@
       <c r="G88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I88" s="3">
@@ -18677,7 +18674,7 @@
       <c r="G89" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I89" s="3">
@@ -18721,7 +18718,7 @@
       <c r="G90" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I90" s="3">
@@ -18765,7 +18762,7 @@
       <c r="G91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I91" s="3">
@@ -18809,7 +18806,7 @@
       <c r="G92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I92" s="3">
@@ -18853,7 +18850,7 @@
       <c r="G93" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I93" s="3">
@@ -18897,7 +18894,7 @@
       <c r="G94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I94" s="3">
@@ -18941,7 +18938,7 @@
       <c r="G95" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I95" s="3">
@@ -18985,7 +18982,7 @@
       <c r="G96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I96" s="3">
@@ -19029,7 +19026,7 @@
       <c r="G97" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I97" s="3">
@@ -19073,7 +19070,7 @@
       <c r="G98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I98" s="3">
@@ -19117,7 +19114,7 @@
       <c r="G99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I99" s="3">
@@ -19161,7 +19158,7 @@
       <c r="G100" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I100" s="3">
@@ -19205,7 +19202,7 @@
       <c r="G101" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I101" s="3">
@@ -19249,7 +19246,7 @@
       <c r="G102" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I102" s="3">
@@ -19293,7 +19290,7 @@
       <c r="G103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I103" s="3">
@@ -19337,7 +19334,7 @@
       <c r="G104" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I104" s="3">
@@ -19381,7 +19378,7 @@
       <c r="G105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I105" s="3">
@@ -19425,7 +19422,7 @@
       <c r="G106" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I106" s="3">
@@ -19469,7 +19466,7 @@
       <c r="G107" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I107" s="3">
@@ -19513,7 +19510,7 @@
       <c r="G108" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I108" s="3">
@@ -19557,7 +19554,7 @@
       <c r="G109" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I109" s="3">
@@ -19601,7 +19598,7 @@
       <c r="G110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I110" s="3">
@@ -19645,7 +19642,7 @@
       <c r="G111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I111" s="3">
@@ -19689,7 +19686,7 @@
       <c r="G112" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I112" s="3">
@@ -19733,7 +19730,7 @@
       <c r="G113" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I113" s="3">
@@ -19777,7 +19774,7 @@
       <c r="G114" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I114" s="3">
@@ -19821,7 +19818,7 @@
       <c r="G115" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I115" s="3">
@@ -19865,7 +19862,7 @@
       <c r="G116" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I116" s="3">
@@ -19909,7 +19906,7 @@
       <c r="G117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I117" s="3">
@@ -19953,7 +19950,7 @@
       <c r="G118" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I118" s="3">
@@ -19997,7 +19994,7 @@
       <c r="G119" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I119" s="3">
@@ -20041,7 +20038,7 @@
       <c r="G120" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I120" s="3">
@@ -20085,7 +20082,7 @@
       <c r="G121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H121" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I121" s="3">
@@ -20129,7 +20126,7 @@
       <c r="G122" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H122" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I122" s="3">
@@ -20173,7 +20170,7 @@
       <c r="G123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H123" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I123" s="3">
@@ -20217,7 +20214,7 @@
       <c r="G124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I124" s="3">
@@ -20261,7 +20258,7 @@
       <c r="G125" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H125" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I125" s="3">
@@ -20305,7 +20302,7 @@
       <c r="G126" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I126" s="3">
@@ -20349,7 +20346,7 @@
       <c r="G127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H127" s="7" t="s">
+      <c r="H127" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I127" s="3">
@@ -20393,7 +20390,7 @@
       <c r="G128" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="H128" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I128" s="3">
@@ -20437,7 +20434,7 @@
       <c r="G129" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="H129" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I129" s="3">
@@ -20481,7 +20478,7 @@
       <c r="G130" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I130" s="3">
@@ -20525,7 +20522,7 @@
       <c r="G131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I131" s="3">
@@ -20569,7 +20566,7 @@
       <c r="G132" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I132" s="3">
@@ -20613,7 +20610,7 @@
       <c r="G133" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I133" s="3">
@@ -20657,7 +20654,7 @@
       <c r="G134" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I134" s="3">
@@ -20701,7 +20698,7 @@
       <c r="G135" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I135" s="3">
@@ -20745,7 +20742,7 @@
       <c r="G136" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H136" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I136" s="3">
@@ -20789,7 +20786,7 @@
       <c r="G137" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I137" s="3">
@@ -20833,7 +20830,7 @@
       <c r="G138" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I138" s="3">
@@ -20877,7 +20874,7 @@
       <c r="G139" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H139" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I139" s="3">
@@ -20921,7 +20918,7 @@
       <c r="G140" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I140" s="3">
@@ -20965,7 +20962,7 @@
       <c r="G141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I141" s="3">
@@ -21009,7 +21006,7 @@
       <c r="G142" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I142" s="3">
@@ -21053,7 +21050,7 @@
       <c r="G143" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I143" s="3">
@@ -21097,7 +21094,7 @@
       <c r="G144" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I144" s="3">
@@ -21141,7 +21138,7 @@
       <c r="G145" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H145" s="7" t="s">
+      <c r="H145" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I145" s="3">
@@ -21185,7 +21182,7 @@
       <c r="G146" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I146" s="3">
@@ -21229,7 +21226,7 @@
       <c r="G147" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H147" s="7" t="s">
+      <c r="H147" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I147" s="3">
@@ -21273,7 +21270,7 @@
       <c r="G148" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H148" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I148" s="3">
@@ -21317,7 +21314,7 @@
       <c r="G149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H149" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I149" s="3">
@@ -21361,7 +21358,7 @@
       <c r="G150" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I150" s="3">
@@ -21405,7 +21402,7 @@
       <c r="G151" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H151" s="7" t="s">
+      <c r="H151" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I151" s="3">
@@ -21449,7 +21446,7 @@
       <c r="G152" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I152" s="3">
@@ -21493,7 +21490,7 @@
       <c r="G153" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H153" s="7" t="s">
+      <c r="H153" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I153" s="3">
@@ -21537,7 +21534,7 @@
       <c r="G154" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I154" s="3">
@@ -21581,7 +21578,7 @@
       <c r="G155" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H155" s="7" t="s">
+      <c r="H155" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I155" s="3">
@@ -21625,7 +21622,7 @@
       <c r="G156" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I156" s="3">
@@ -21669,7 +21666,7 @@
       <c r="G157" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H157" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I157" s="3">
@@ -21713,7 +21710,7 @@
       <c r="G158" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I158" s="3">
@@ -21757,7 +21754,7 @@
       <c r="G159" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H159" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I159" s="3">
@@ -21801,7 +21798,7 @@
       <c r="G160" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I160" s="3">
@@ -21845,7 +21842,7 @@
       <c r="G161" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I161" s="3">
@@ -21889,7 +21886,7 @@
       <c r="G162" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H162" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I162" s="3">
@@ -21933,7 +21930,7 @@
       <c r="G163" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I163" s="3">
@@ -21977,7 +21974,7 @@
       <c r="G164" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I164" s="3">
@@ -22021,7 +22018,7 @@
       <c r="G165" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H165" s="7" t="s">
+      <c r="H165" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I165" s="3">
@@ -22065,7 +22062,7 @@
       <c r="G166" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H166" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I166" s="3">
@@ -22109,7 +22106,7 @@
       <c r="G167" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H167" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I167" s="3">
@@ -22153,7 +22150,7 @@
       <c r="G168" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I168" s="3">
@@ -22197,7 +22194,7 @@
       <c r="G169" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H169" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I169" s="3">
@@ -22241,7 +22238,7 @@
       <c r="G170" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H170" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I170" s="3">
@@ -22285,7 +22282,7 @@
       <c r="G171" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H171" s="7" t="s">
+      <c r="H171" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I171" s="3">
@@ -22329,7 +22326,7 @@
       <c r="G172" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H172" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I172" s="3">
@@ -22373,7 +22370,7 @@
       <c r="G173" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I173" s="3">
@@ -22417,7 +22414,7 @@
       <c r="G174" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H174" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I174" s="3">
@@ -22461,7 +22458,7 @@
       <c r="G175" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H175" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I175" s="3">
@@ -22505,7 +22502,7 @@
       <c r="G176" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I176" s="3">
@@ -22549,7 +22546,7 @@
       <c r="G177" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H177" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I177" s="3">
@@ -22593,7 +22590,7 @@
       <c r="G178" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I178" s="3">
@@ -22637,7 +22634,7 @@
       <c r="G179" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H179" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I179" s="3">
@@ -22681,7 +22678,7 @@
       <c r="G180" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H180" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I180" s="3">
@@ -22725,7 +22722,7 @@
       <c r="G181" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H181" s="7" t="s">
+      <c r="H181" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I181" s="3">
@@ -22769,7 +22766,7 @@
       <c r="G182" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H182" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I182" s="3">
@@ -22813,7 +22810,7 @@
       <c r="G183" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H183" s="7" t="s">
+      <c r="H183" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I183" s="3">
@@ -22857,7 +22854,7 @@
       <c r="G184" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H184" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I184" s="3">
@@ -22901,7 +22898,7 @@
       <c r="G185" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H185" s="7" t="s">
+      <c r="H185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I185" s="3">
@@ -22945,7 +22942,7 @@
       <c r="G186" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I186" s="3">
@@ -22989,7 +22986,7 @@
       <c r="G187" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="H187" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I187" s="3">
@@ -23033,7 +23030,7 @@
       <c r="G188" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I188" s="3">
@@ -23077,7 +23074,7 @@
       <c r="G189" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H189" s="7" t="s">
+      <c r="H189" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I189" s="3">
@@ -23121,7 +23118,7 @@
       <c r="G190" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H190" s="7" t="s">
+      <c r="H190" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I190" s="3">
@@ -23165,7 +23162,7 @@
       <c r="G191" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H191" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I191" s="3">
@@ -23209,7 +23206,7 @@
       <c r="G192" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H192" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I192" s="3">
@@ -23253,7 +23250,7 @@
       <c r="G193" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H193" s="7" t="s">
+      <c r="H193" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I193" s="3">
@@ -23297,7 +23294,7 @@
       <c r="G194" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H194" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I194" s="3">
@@ -23341,7 +23338,7 @@
       <c r="G195" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="H195" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I195" s="3">
@@ -23385,7 +23382,7 @@
       <c r="G196" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H196" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I196" s="3">
@@ -23429,7 +23426,7 @@
       <c r="G197" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="H197" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I197" s="3">
@@ -23473,7 +23470,7 @@
       <c r="G198" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I198" s="3">
@@ -23517,7 +23514,7 @@
       <c r="G199" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H199" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I199" s="3">
@@ -23561,7 +23558,7 @@
       <c r="G200" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="H200" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I200" s="3">
@@ -23605,7 +23602,7 @@
       <c r="G201" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H201" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I201" s="3">
@@ -23649,7 +23646,7 @@
       <c r="G202" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H202" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I202" s="3">
@@ -23693,7 +23690,7 @@
       <c r="G203" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="H203" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I203" s="3">
@@ -23737,7 +23734,7 @@
       <c r="G204" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H204" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I204" s="3">
@@ -23781,7 +23778,7 @@
       <c r="G205" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H205" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I205" s="3">
@@ -23825,7 +23822,7 @@
       <c r="G206" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H206" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I206" s="3">
@@ -23869,7 +23866,7 @@
       <c r="G207" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H207" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I207" s="3">
@@ -23913,7 +23910,7 @@
       <c r="G208" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H208" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I208" s="3">
@@ -23957,7 +23954,7 @@
       <c r="G209" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H209" s="7" t="s">
+      <c r="H209" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I209" s="3">
@@ -24001,7 +23998,7 @@
       <c r="G210" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H210" s="7" t="s">
+      <c r="H210" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I210" s="3">
@@ -24045,7 +24042,7 @@
       <c r="G211" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H211" s="7" t="s">
+      <c r="H211" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I211" s="3">
@@ -24089,7 +24086,7 @@
       <c r="G212" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H212" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I212" s="3">
@@ -24133,7 +24130,7 @@
       <c r="G213" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H213" s="7" t="s">
+      <c r="H213" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I213" s="3">
@@ -24177,7 +24174,7 @@
       <c r="G214" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H214" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I214" s="3">
@@ -24221,7 +24218,7 @@
       <c r="G215" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H215" s="7" t="s">
+      <c r="H215" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I215" s="3">
@@ -24265,7 +24262,7 @@
       <c r="G216" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H216" s="7" t="s">
+      <c r="H216" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I216" s="3">
@@ -24309,7 +24306,7 @@
       <c r="G217" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H217" s="7" t="s">
+      <c r="H217" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I217" s="3">
@@ -24353,7 +24350,7 @@
       <c r="G218" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H218" s="7" t="s">
+      <c r="H218" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I218" s="3">
@@ -24397,7 +24394,7 @@
       <c r="G219" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H219" s="7" t="s">
+      <c r="H219" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I219" s="3">
@@ -24441,7 +24438,7 @@
       <c r="G220" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H220" s="7" t="s">
+      <c r="H220" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I220" s="3">
@@ -24485,7 +24482,7 @@
       <c r="G221" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H221" s="7" t="s">
+      <c r="H221" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I221" s="3">
@@ -24529,7 +24526,7 @@
       <c r="G222" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H222" s="7" t="s">
+      <c r="H222" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I222" s="3">
@@ -24573,7 +24570,7 @@
       <c r="G223" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H223" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I223" s="3">
@@ -24617,7 +24614,7 @@
       <c r="G224" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H224" s="7" t="s">
+      <c r="H224" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I224" s="3">
@@ -24661,7 +24658,7 @@
       <c r="G225" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H225" s="7" t="s">
+      <c r="H225" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I225" s="3">
@@ -24705,7 +24702,7 @@
       <c r="G226" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I226" s="3">
@@ -24749,7 +24746,7 @@
       <c r="G227" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H227" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I227" s="3">
@@ -24793,7 +24790,7 @@
       <c r="G228" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I228" s="3">
@@ -24837,7 +24834,7 @@
       <c r="G229" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H229" s="7" t="s">
+      <c r="H229" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I229" s="3">
@@ -24881,7 +24878,7 @@
       <c r="G230" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H230" s="7" t="s">
+      <c r="H230" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I230" s="3">
@@ -24925,7 +24922,7 @@
       <c r="G231" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H231" s="7" t="s">
+      <c r="H231" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I231" s="3">
@@ -24969,7 +24966,7 @@
       <c r="G232" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H232" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I232" s="3">
@@ -25013,7 +25010,7 @@
       <c r="G233" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H233" s="7" t="s">
+      <c r="H233" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I233" s="3">
@@ -25057,7 +25054,7 @@
       <c r="G234" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H234" s="7" t="s">
+      <c r="H234" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I234" s="3">
@@ -25101,7 +25098,7 @@
       <c r="G235" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H235" s="7" t="s">
+      <c r="H235" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I235" s="3">
@@ -25145,7 +25142,7 @@
       <c r="G236" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I236" s="3">
@@ -25189,7 +25186,7 @@
       <c r="G237" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H237" s="7" t="s">
+      <c r="H237" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I237" s="3">
@@ -25233,7 +25230,7 @@
       <c r="G238" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I238" s="3">
@@ -25277,7 +25274,7 @@
       <c r="G239" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I239" s="3">
@@ -25321,7 +25318,7 @@
       <c r="G240" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I240" s="3">
@@ -25365,7 +25362,7 @@
       <c r="G241" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H241" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I241" s="3">
@@ -25409,7 +25406,7 @@
       <c r="G242" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I242" s="3">
@@ -25453,7 +25450,7 @@
       <c r="G243" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H243" s="7" t="s">
+      <c r="H243" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I243" s="3">
@@ -25497,7 +25494,7 @@
       <c r="G244" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H244" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I244" s="3">
@@ -25541,7 +25538,7 @@
       <c r="G245" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H245" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I245" s="3">
@@ -25585,7 +25582,7 @@
       <c r="G246" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H246" s="7" t="s">
+      <c r="H246" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I246" s="3">
@@ -25629,7 +25626,7 @@
       <c r="G247" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H247" s="7" t="s">
+      <c r="H247" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I247" s="3">
@@ -25673,7 +25670,7 @@
       <c r="G248" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H248" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I248" s="3">
@@ -25717,7 +25714,7 @@
       <c r="G249" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H249" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I249" s="3">
@@ -25761,7 +25758,7 @@
       <c r="G250" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="H250" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I250" s="3">
@@ -25805,7 +25802,7 @@
       <c r="G251" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="H251" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I251" s="3">
@@ -25849,7 +25846,7 @@
       <c r="G252" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="H252" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I252" s="3">
@@ -25893,7 +25890,7 @@
       <c r="G253" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H253" s="7" t="s">
+      <c r="H253" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I253" s="3">
@@ -25937,7 +25934,7 @@
       <c r="G254" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H254" s="7" t="s">
+      <c r="H254" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I254" s="3">
@@ -25981,7 +25978,7 @@
       <c r="G255" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H255" s="7" t="s">
+      <c r="H255" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I255" s="3">
@@ -26025,7 +26022,7 @@
       <c r="G256" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="H256" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I256" s="3">
@@ -26069,7 +26066,7 @@
       <c r="G257" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="H257" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I257" s="3">
@@ -26113,7 +26110,7 @@
       <c r="G258" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H258" s="7" t="s">
+      <c r="H258" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I258" s="3">
@@ -26157,7 +26154,7 @@
       <c r="G259" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H259" s="7" t="s">
+      <c r="H259" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I259" s="3">
@@ -26201,7 +26198,7 @@
       <c r="G260" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H260" s="7" t="s">
+      <c r="H260" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I260" s="3">
@@ -26245,7 +26242,7 @@
       <c r="G261" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H261" s="7" t="s">
+      <c r="H261" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I261" s="3">
@@ -26289,7 +26286,7 @@
       <c r="G262" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H262" s="7" t="s">
+      <c r="H262" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I262" s="3">
@@ -26333,7 +26330,7 @@
       <c r="G263" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H263" s="7" t="s">
+      <c r="H263" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I263" s="3">
@@ -26377,7 +26374,7 @@
       <c r="G264" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H264" s="7" t="s">
+      <c r="H264" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I264" s="3">
@@ -26421,7 +26418,7 @@
       <c r="G265" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H265" s="7" t="s">
+      <c r="H265" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I265" s="3">
@@ -26465,7 +26462,7 @@
       <c r="G266" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H266" s="7" t="s">
+      <c r="H266" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I266" s="3">
@@ -26509,7 +26506,7 @@
       <c r="G267" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H267" s="7" t="s">
+      <c r="H267" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I267" s="3">
@@ -26553,7 +26550,7 @@
       <c r="G268" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H268" s="7" t="s">
+      <c r="H268" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I268" s="3">
@@ -26597,7 +26594,7 @@
       <c r="G269" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H269" s="7" t="s">
+      <c r="H269" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I269" s="3">
@@ -26641,7 +26638,7 @@
       <c r="G270" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H270" s="7" t="s">
+      <c r="H270" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I270" s="3">
@@ -26685,7 +26682,7 @@
       <c r="G271" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H271" s="7" t="s">
+      <c r="H271" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I271" s="3">
@@ -26729,7 +26726,7 @@
       <c r="G272" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H272" s="7" t="s">
+      <c r="H272" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I272" s="3">
@@ -26773,7 +26770,7 @@
       <c r="G273" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H273" s="7" t="s">
+      <c r="H273" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I273" s="3">
@@ -26817,7 +26814,7 @@
       <c r="G274" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H274" s="7" t="s">
+      <c r="H274" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I274" s="3">
@@ -26861,7 +26858,7 @@
       <c r="G275" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H275" s="7" t="s">
+      <c r="H275" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I275" s="3">
@@ -26905,7 +26902,7 @@
       <c r="G276" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H276" s="7" t="s">
+      <c r="H276" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I276" s="3">
@@ -26949,7 +26946,7 @@
       <c r="G277" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H277" s="7" t="s">
+      <c r="H277" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I277" s="3">
@@ -26993,7 +26990,7 @@
       <c r="G278" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H278" s="7" t="s">
+      <c r="H278" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I278" s="3">
@@ -27037,7 +27034,7 @@
       <c r="G279" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H279" s="7" t="s">
+      <c r="H279" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I279" s="3">
@@ -27081,7 +27078,7 @@
       <c r="G280" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H280" s="7" t="s">
+      <c r="H280" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I280" s="3">
@@ -27125,7 +27122,7 @@
       <c r="G281" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H281" s="7" t="s">
+      <c r="H281" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I281" s="3">
@@ -27169,7 +27166,7 @@
       <c r="G282" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H282" s="7" t="s">
+      <c r="H282" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I282" s="3">
@@ -27213,7 +27210,7 @@
       <c r="G283" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H283" s="7" t="s">
+      <c r="H283" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I283" s="3">
@@ -27257,7 +27254,7 @@
       <c r="G284" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H284" s="7" t="s">
+      <c r="H284" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I284" s="3">
@@ -27301,7 +27298,7 @@
       <c r="G285" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H285" s="7" t="s">
+      <c r="H285" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I285" s="3">
@@ -27345,7 +27342,7 @@
       <c r="G286" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H286" s="7" t="s">
+      <c r="H286" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I286" s="3">
@@ -27389,7 +27386,7 @@
       <c r="G287" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H287" s="7" t="s">
+      <c r="H287" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I287" s="3">
@@ -27433,7 +27430,7 @@
       <c r="G288" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H288" s="7" t="s">
+      <c r="H288" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I288" s="3">
@@ -27477,7 +27474,7 @@
       <c r="G289" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H289" s="7" t="s">
+      <c r="H289" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I289" s="3">
@@ -27521,7 +27518,7 @@
       <c r="G290" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H290" s="7" t="s">
+      <c r="H290" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I290" s="3">
@@ -27565,7 +27562,7 @@
       <c r="G291" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H291" s="7" t="s">
+      <c r="H291" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I291" s="3">
@@ -27609,7 +27606,7 @@
       <c r="G292" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H292" s="7" t="s">
+      <c r="H292" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I292" s="3">
@@ -27653,7 +27650,7 @@
       <c r="G293" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H293" s="7" t="s">
+      <c r="H293" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I293" s="3">
@@ -27697,7 +27694,7 @@
       <c r="G294" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H294" s="7" t="s">
+      <c r="H294" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I294" s="3">
@@ -27741,7 +27738,7 @@
       <c r="G295" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H295" s="7" t="s">
+      <c r="H295" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I295" s="3">
@@ -27785,7 +27782,7 @@
       <c r="G296" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H296" s="7" t="s">
+      <c r="H296" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I296" s="3">
@@ -27829,7 +27826,7 @@
       <c r="G297" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H297" s="7" t="s">
+      <c r="H297" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I297" s="3">
@@ -27873,7 +27870,7 @@
       <c r="G298" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H298" s="7" t="s">
+      <c r="H298" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I298" s="3">
@@ -27917,7 +27914,7 @@
       <c r="G299" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H299" s="7" t="s">
+      <c r="H299" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I299" s="3">
@@ -27961,7 +27958,7 @@
       <c r="G300" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H300" s="7" t="s">
+      <c r="H300" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I300" s="3">
@@ -28005,7 +28002,7 @@
       <c r="G301" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H301" s="7" t="s">
+      <c r="H301" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I301" s="3">
@@ -28049,7 +28046,7 @@
       <c r="G302" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H302" s="7" t="s">
+      <c r="H302" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I302" s="3">
@@ -28093,7 +28090,7 @@
       <c r="G303" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H303" s="7" t="s">
+      <c r="H303" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I303" s="3">
@@ -28137,7 +28134,7 @@
       <c r="G304" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H304" s="7" t="s">
+      <c r="H304" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I304" s="3">
@@ -28181,7 +28178,7 @@
       <c r="G305" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H305" s="7" t="s">
+      <c r="H305" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I305" s="3">
@@ -28225,7 +28222,7 @@
       <c r="G306" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H306" s="7" t="s">
+      <c r="H306" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I306" s="3">
@@ -28269,7 +28266,7 @@
       <c r="G307" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H307" s="7" t="s">
+      <c r="H307" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I307" s="3">
@@ -28313,7 +28310,7 @@
       <c r="G308" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H308" s="7" t="s">
+      <c r="H308" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I308" s="3">
@@ -28357,7 +28354,7 @@
       <c r="G309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H309" s="7" t="s">
+      <c r="H309" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I309" s="3">
@@ -28401,7 +28398,7 @@
       <c r="G310" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H310" s="7" t="s">
+      <c r="H310" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I310" s="3">
@@ -28445,7 +28442,7 @@
       <c r="G311" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H311" s="7" t="s">
+      <c r="H311" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I311" s="3">
@@ -28489,7 +28486,7 @@
       <c r="G312" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H312" s="7" t="s">
+      <c r="H312" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I312" s="3">
@@ -28533,7 +28530,7 @@
       <c r="G313" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H313" s="7" t="s">
+      <c r="H313" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I313" s="3">
@@ -28577,7 +28574,7 @@
       <c r="G314" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H314" s="7" t="s">
+      <c r="H314" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I314" s="3">
@@ -28621,7 +28618,7 @@
       <c r="G315" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H315" s="7" t="s">
+      <c r="H315" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I315" s="3">
@@ -28665,7 +28662,7 @@
       <c r="G316" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H316" s="7" t="s">
+      <c r="H316" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I316" s="3">
@@ -28709,7 +28706,7 @@
       <c r="G317" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H317" s="7" t="s">
+      <c r="H317" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I317" s="3">
@@ -28753,7 +28750,7 @@
       <c r="G318" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H318" s="7" t="s">
+      <c r="H318" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I318" s="3">
@@ -28797,7 +28794,7 @@
       <c r="G319" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H319" s="7" t="s">
+      <c r="H319" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I319" s="3">
@@ -28841,7 +28838,7 @@
       <c r="G320" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H320" s="7" t="s">
+      <c r="H320" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I320" s="3">
@@ -28885,7 +28882,7 @@
       <c r="G321" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H321" s="7" t="s">
+      <c r="H321" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I321" s="3">
@@ -28929,7 +28926,7 @@
       <c r="G322" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H322" s="7" t="s">
+      <c r="H322" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I322" s="3">
@@ -28973,7 +28970,7 @@
       <c r="G323" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H323" s="7" t="s">
+      <c r="H323" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I323" s="3">
@@ -29017,7 +29014,7 @@
       <c r="G324" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H324" s="7" t="s">
+      <c r="H324" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I324" s="3">
@@ -29061,7 +29058,7 @@
       <c r="G325" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H325" s="7" t="s">
+      <c r="H325" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I325" s="3">
@@ -29105,7 +29102,7 @@
       <c r="G326" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H326" s="7" t="s">
+      <c r="H326" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I326" s="3">
@@ -29149,7 +29146,7 @@
       <c r="G327" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H327" s="7" t="s">
+      <c r="H327" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I327" s="3">
@@ -29193,7 +29190,7 @@
       <c r="G328" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H328" s="7" t="s">
+      <c r="H328" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I328" s="3">
@@ -29237,7 +29234,7 @@
       <c r="G329" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H329" s="7" t="s">
+      <c r="H329" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I329" s="3">
@@ -29281,7 +29278,7 @@
       <c r="G330" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H330" s="7" t="s">
+      <c r="H330" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I330" s="3">
@@ -29325,7 +29322,7 @@
       <c r="G331" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H331" s="7" t="s">
+      <c r="H331" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I331" s="3">
@@ -29369,7 +29366,7 @@
       <c r="G332" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H332" s="7" t="s">
+      <c r="H332" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I332" s="3">
@@ -29413,7 +29410,7 @@
       <c r="G333" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H333" s="7" t="s">
+      <c r="H333" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I333" s="3">
@@ -29457,7 +29454,7 @@
       <c r="G334" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H334" s="7" t="s">
+      <c r="H334" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I334" s="3">
@@ -29501,7 +29498,7 @@
       <c r="G335" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H335" s="7" t="s">
+      <c r="H335" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I335" s="3">
@@ -29545,7 +29542,7 @@
       <c r="G336" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H336" s="7" t="s">
+      <c r="H336" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I336" s="3">
@@ -29589,7 +29586,7 @@
       <c r="G337" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H337" s="7" t="s">
+      <c r="H337" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I337" s="3">
@@ -29633,7 +29630,7 @@
       <c r="G338" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H338" s="7" t="s">
+      <c r="H338" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I338" s="3">
@@ -29677,7 +29674,7 @@
       <c r="G339" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H339" s="7" t="s">
+      <c r="H339" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I339" s="3">
@@ -29721,7 +29718,7 @@
       <c r="G340" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H340" s="7" t="s">
+      <c r="H340" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I340" s="3">
@@ -29765,7 +29762,7 @@
       <c r="G341" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H341" s="7" t="s">
+      <c r="H341" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I341" s="3">
@@ -29809,7 +29806,7 @@
       <c r="G342" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H342" s="7" t="s">
+      <c r="H342" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I342" s="3">
@@ -29853,7 +29850,7 @@
       <c r="G343" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H343" s="7" t="s">
+      <c r="H343" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I343" s="3">
@@ -29897,7 +29894,7 @@
       <c r="G344" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H344" s="7" t="s">
+      <c r="H344" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I344" s="3">
@@ -29941,7 +29938,7 @@
       <c r="G345" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H345" s="7" t="s">
+      <c r="H345" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I345" s="3">
@@ -29985,7 +29982,7 @@
       <c r="G346" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H346" s="7" t="s">
+      <c r="H346" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I346" s="3">
@@ -30029,7 +30026,7 @@
       <c r="G347" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H347" s="7" t="s">
+      <c r="H347" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I347" s="3">
@@ -30073,7 +30070,7 @@
       <c r="G348" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H348" s="7" t="s">
+      <c r="H348" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I348" s="3">
@@ -30117,7 +30114,7 @@
       <c r="G349" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H349" s="7" t="s">
+      <c r="H349" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I349" s="3">
@@ -30161,7 +30158,7 @@
       <c r="G350" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H350" s="7" t="s">
+      <c r="H350" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I350" s="3">
@@ -30205,7 +30202,7 @@
       <c r="G351" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H351" s="7" t="s">
+      <c r="H351" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I351" s="3">
@@ -30249,7 +30246,7 @@
       <c r="G352" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H352" s="7" t="s">
+      <c r="H352" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I352" s="3">
@@ -30293,7 +30290,7 @@
       <c r="G353" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H353" s="7" t="s">
+      <c r="H353" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I353" s="3">
@@ -30337,7 +30334,7 @@
       <c r="G354" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H354" s="7" t="s">
+      <c r="H354" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I354" s="3">
@@ -30381,7 +30378,7 @@
       <c r="G355" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H355" s="7" t="s">
+      <c r="H355" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I355" s="3">
@@ -30425,7 +30422,7 @@
       <c r="G356" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H356" s="7" t="s">
+      <c r="H356" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I356" s="3">
@@ -30469,7 +30466,7 @@
       <c r="G357" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H357" s="7" t="s">
+      <c r="H357" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I357" s="3">
@@ -30513,7 +30510,7 @@
       <c r="G358" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H358" s="7" t="s">
+      <c r="H358" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I358" s="3">
@@ -30557,7 +30554,7 @@
       <c r="G359" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H359" s="7" t="s">
+      <c r="H359" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I359" s="3">
@@ -30601,7 +30598,7 @@
       <c r="G360" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H360" s="7" t="s">
+      <c r="H360" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I360" s="3">
@@ -30645,7 +30642,7 @@
       <c r="G361" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H361" s="7" t="s">
+      <c r="H361" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I361" s="3">
@@ -30689,7 +30686,7 @@
       <c r="G362" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H362" s="7" t="s">
+      <c r="H362" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I362" s="3">
@@ -30733,7 +30730,7 @@
       <c r="G363" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H363" s="7" t="s">
+      <c r="H363" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I363" s="3">
@@ -30777,7 +30774,7 @@
       <c r="G364" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H364" s="7" t="s">
+      <c r="H364" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I364" s="3">
@@ -30821,7 +30818,7 @@
       <c r="G365" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H365" s="7" t="s">
+      <c r="H365" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I365" s="3">
@@ -30865,7 +30862,7 @@
       <c r="G366" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H366" s="7" t="s">
+      <c r="H366" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I366" s="3">
@@ -30909,7 +30906,7 @@
       <c r="G367" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H367" s="7" t="s">
+      <c r="H367" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I367" s="3">
@@ -30953,7 +30950,7 @@
       <c r="G368" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H368" s="7" t="s">
+      <c r="H368" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I368" s="3">
@@ -30997,7 +30994,7 @@
       <c r="G369" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H369" s="7" t="s">
+      <c r="H369" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I369" s="3">
@@ -31041,7 +31038,7 @@
       <c r="G370" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H370" s="7" t="s">
+      <c r="H370" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I370" s="3">
@@ -31085,7 +31082,7 @@
       <c r="G371" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H371" s="7" t="s">
+      <c r="H371" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I371" s="3">
@@ -31129,7 +31126,7 @@
       <c r="G372" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H372" s="7" t="s">
+      <c r="H372" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I372" s="3">
@@ -31173,7 +31170,7 @@
       <c r="G373" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H373" s="7" t="s">
+      <c r="H373" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I373" s="3">
@@ -31217,7 +31214,7 @@
       <c r="G374" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H374" s="7" t="s">
+      <c r="H374" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I374" s="3">
@@ -31261,7 +31258,7 @@
       <c r="G375" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H375" s="7" t="s">
+      <c r="H375" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I375" s="3">
@@ -31305,7 +31302,7 @@
       <c r="G376" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H376" s="7" t="s">
+      <c r="H376" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I376" s="3">
@@ -31349,7 +31346,7 @@
       <c r="G377" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H377" s="7" t="s">
+      <c r="H377" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I377" s="3">
@@ -31393,7 +31390,7 @@
       <c r="G378" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H378" s="7" t="s">
+      <c r="H378" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I378" s="3">
@@ -31437,7 +31434,7 @@
       <c r="G379" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H379" s="7" t="s">
+      <c r="H379" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I379" s="3">
@@ -31481,7 +31478,7 @@
       <c r="G380" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H380" s="7" t="s">
+      <c r="H380" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I380" s="3">
@@ -31525,7 +31522,7 @@
       <c r="G381" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H381" s="7" t="s">
+      <c r="H381" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I381" s="3">
@@ -31569,7 +31566,7 @@
       <c r="G382" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H382" s="7" t="s">
+      <c r="H382" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I382" s="3">
@@ -31613,7 +31610,7 @@
       <c r="G383" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H383" s="7" t="s">
+      <c r="H383" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I383" s="3">
@@ -31657,7 +31654,7 @@
       <c r="G384" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H384" s="7" t="s">
+      <c r="H384" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I384" s="3">
@@ -31701,7 +31698,7 @@
       <c r="G385" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H385" s="7" t="s">
+      <c r="H385" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I385" s="3">
@@ -31745,7 +31742,7 @@
       <c r="G386" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H386" s="7" t="s">
+      <c r="H386" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I386" s="3">
@@ -31789,7 +31786,7 @@
       <c r="G387" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H387" s="7" t="s">
+      <c r="H387" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I387" s="3">
@@ -31833,7 +31830,7 @@
       <c r="G388" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H388" s="7" t="s">
+      <c r="H388" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I388" s="3">
@@ -31877,7 +31874,7 @@
       <c r="G389" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H389" s="7" t="s">
+      <c r="H389" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I389" s="3">
@@ -31921,7 +31918,7 @@
       <c r="G390" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H390" s="7" t="s">
+      <c r="H390" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I390" s="3">
@@ -31965,7 +31962,7 @@
       <c r="G391" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H391" s="7" t="s">
+      <c r="H391" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I391" s="3">
@@ -32009,7 +32006,7 @@
       <c r="G392" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H392" s="7" t="s">
+      <c r="H392" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I392" s="3">
@@ -32053,7 +32050,7 @@
       <c r="G393" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H393" s="7" t="s">
+      <c r="H393" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I393" s="3">
@@ -32097,7 +32094,7 @@
       <c r="G394" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H394" s="7" t="s">
+      <c r="H394" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I394" s="3">
@@ -32141,7 +32138,7 @@
       <c r="G395" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H395" s="7" t="s">
+      <c r="H395" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I395" s="3">
@@ -32185,7 +32182,7 @@
       <c r="G396" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H396" s="7" t="s">
+      <c r="H396" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I396" s="3">
@@ -32229,7 +32226,7 @@
       <c r="G397" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H397" s="7" t="s">
+      <c r="H397" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I397" s="3">
@@ -32273,7 +32270,7 @@
       <c r="G398" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H398" s="7" t="s">
+      <c r="H398" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I398" s="3">
@@ -32317,7 +32314,7 @@
       <c r="G399" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H399" s="7" t="s">
+      <c r="H399" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I399" s="3">
@@ -32361,7 +32358,7 @@
       <c r="G400" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H400" s="7" t="s">
+      <c r="H400" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I400" s="3">
@@ -32405,7 +32402,7 @@
       <c r="G401" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H401" s="7" t="s">
+      <c r="H401" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I401" s="3">
@@ -32449,7 +32446,7 @@
       <c r="G402" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H402" s="7" t="s">
+      <c r="H402" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I402" s="3">
@@ -32493,7 +32490,7 @@
       <c r="G403" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H403" s="7" t="s">
+      <c r="H403" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I403" s="3">
@@ -32537,7 +32534,7 @@
       <c r="G404" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H404" s="7" t="s">
+      <c r="H404" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I404" s="3">
@@ -32581,7 +32578,7 @@
       <c r="G405" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H405" s="7" t="s">
+      <c r="H405" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I405" s="3">
@@ -32625,7 +32622,7 @@
       <c r="G406" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H406" s="7" t="s">
+      <c r="H406" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I406" s="3">
@@ -32669,7 +32666,7 @@
       <c r="G407" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H407" s="7" t="s">
+      <c r="H407" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I407" s="3">
@@ -32713,7 +32710,7 @@
       <c r="G408" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H408" s="7" t="s">
+      <c r="H408" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I408" s="3">
@@ -32757,7 +32754,7 @@
       <c r="G409" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H409" s="7" t="s">
+      <c r="H409" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I409" s="3">
@@ -32801,7 +32798,7 @@
       <c r="G410" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H410" s="7" t="s">
+      <c r="H410" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I410" s="3">
@@ -32845,7 +32842,7 @@
       <c r="G411" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H411" s="7" t="s">
+      <c r="H411" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I411" s="3">
@@ -32889,7 +32886,7 @@
       <c r="G412" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H412" s="7" t="s">
+      <c r="H412" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I412" s="3">
@@ -32933,7 +32930,7 @@
       <c r="G413" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H413" s="7" t="s">
+      <c r="H413" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I413" s="3">
@@ -32977,7 +32974,7 @@
       <c r="G414" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H414" s="7" t="s">
+      <c r="H414" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I414" s="3">
@@ -33021,7 +33018,7 @@
       <c r="G415" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H415" s="7" t="s">
+      <c r="H415" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I415" s="3">
@@ -33065,7 +33062,7 @@
       <c r="G416" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H416" s="7" t="s">
+      <c r="H416" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I416" s="3">
@@ -33109,7 +33106,7 @@
       <c r="G417" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H417" s="7" t="s">
+      <c r="H417" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I417" s="3">
@@ -33153,7 +33150,7 @@
       <c r="G418" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H418" s="7" t="s">
+      <c r="H418" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I418" s="3">
@@ -33197,7 +33194,7 @@
       <c r="G419" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H419" s="7" t="s">
+      <c r="H419" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I419" s="3">
@@ -33241,7 +33238,7 @@
       <c r="G420" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H420" s="7" t="s">
+      <c r="H420" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I420" s="3">
@@ -33285,7 +33282,7 @@
       <c r="G421" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H421" s="7" t="s">
+      <c r="H421" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I421" s="3">
@@ -33329,7 +33326,7 @@
       <c r="G422" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H422" s="7" t="s">
+      <c r="H422" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I422" s="3">
@@ -33373,7 +33370,7 @@
       <c r="G423" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H423" s="7" t="s">
+      <c r="H423" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I423" s="3">
@@ -33417,7 +33414,7 @@
       <c r="G424" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H424" s="7" t="s">
+      <c r="H424" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I424" s="3">
@@ -33461,7 +33458,7 @@
       <c r="G425" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H425" s="7" t="s">
+      <c r="H425" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I425" s="3">
@@ -33505,7 +33502,7 @@
       <c r="G426" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H426" s="7" t="s">
+      <c r="H426" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I426" s="3">
@@ -33549,7 +33546,7 @@
       <c r="G427" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H427" s="7" t="s">
+      <c r="H427" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I427" s="3">
@@ -33593,7 +33590,7 @@
       <c r="G428" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H428" s="7" t="s">
+      <c r="H428" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I428" s="3">
@@ -33637,7 +33634,7 @@
       <c r="G429" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H429" s="7" t="s">
+      <c r="H429" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I429" s="3">
@@ -33681,7 +33678,7 @@
       <c r="G430" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H430" s="7" t="s">
+      <c r="H430" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I430" s="3">
@@ -33725,7 +33722,7 @@
       <c r="G431" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H431" s="7" t="s">
+      <c r="H431" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I431" s="3">
@@ -33769,7 +33766,7 @@
       <c r="G432" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H432" s="7" t="s">
+      <c r="H432" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I432" s="3">
@@ -33813,7 +33810,7 @@
       <c r="G433" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H433" s="7" t="s">
+      <c r="H433" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I433" s="3">
@@ -33857,7 +33854,7 @@
       <c r="G434" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H434" s="7" t="s">
+      <c r="H434" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I434" s="3">
@@ -33901,7 +33898,7 @@
       <c r="G435" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H435" s="7" t="s">
+      <c r="H435" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I435" s="3">
@@ -33945,7 +33942,7 @@
       <c r="G436" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H436" s="7" t="s">
+      <c r="H436" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I436" s="3">
@@ -33989,7 +33986,7 @@
       <c r="G437" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H437" s="7" t="s">
+      <c r="H437" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I437" s="3">
@@ -34033,7 +34030,7 @@
       <c r="G438" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H438" s="7" t="s">
+      <c r="H438" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I438" s="3">
@@ -34077,7 +34074,7 @@
       <c r="G439" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H439" s="7" t="s">
+      <c r="H439" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I439" s="3">
@@ -34121,7 +34118,7 @@
       <c r="G440" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H440" s="7" t="s">
+      <c r="H440" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I440" s="3">
@@ -34165,7 +34162,7 @@
       <c r="G441" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H441" s="7" t="s">
+      <c r="H441" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I441" s="3">
@@ -34209,7 +34206,7 @@
       <c r="G442" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H442" s="7" t="s">
+      <c r="H442" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I442" s="3">
@@ -34253,7 +34250,7 @@
       <c r="G443" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H443" s="7" t="s">
+      <c r="H443" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I443" s="3">
@@ -34297,7 +34294,7 @@
       <c r="G444" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H444" s="7" t="s">
+      <c r="H444" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I444" s="3">
@@ -34341,7 +34338,7 @@
       <c r="G445" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H445" s="7" t="s">
+      <c r="H445" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I445" s="3">
@@ -34385,7 +34382,7 @@
       <c r="G446" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H446" s="7" t="s">
+      <c r="H446" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I446" s="3">
@@ -34429,7 +34426,7 @@
       <c r="G447" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H447" s="7" t="s">
+      <c r="H447" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I447" s="3">
@@ -34473,7 +34470,7 @@
       <c r="G448" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H448" s="7" t="s">
+      <c r="H448" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I448" s="3">
@@ -34517,7 +34514,7 @@
       <c r="G449" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H449" s="7" t="s">
+      <c r="H449" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I449" s="3">
@@ -34561,7 +34558,7 @@
       <c r="G450" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H450" s="7" t="s">
+      <c r="H450" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I450" s="3">
@@ -34605,7 +34602,7 @@
       <c r="G451" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H451" s="7" t="s">
+      <c r="H451" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I451" s="3">
@@ -34649,7 +34646,7 @@
       <c r="G452" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H452" s="7" t="s">
+      <c r="H452" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I452" s="3">
@@ -34693,7 +34690,7 @@
       <c r="G453" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H453" s="7" t="s">
+      <c r="H453" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I453" s="3">
@@ -34737,7 +34734,7 @@
       <c r="G454" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H454" s="7" t="s">
+      <c r="H454" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I454" s="3">
@@ -34781,7 +34778,7 @@
       <c r="G455" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H455" s="7" t="s">
+      <c r="H455" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I455" s="3">
@@ -34825,7 +34822,7 @@
       <c r="G456" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H456" s="7" t="s">
+      <c r="H456" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I456" s="3">
@@ -34869,7 +34866,7 @@
       <c r="G457" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H457" s="7" t="s">
+      <c r="H457" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I457" s="3">
@@ -34913,7 +34910,7 @@
       <c r="G458" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H458" s="7" t="s">
+      <c r="H458" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I458" s="3">
@@ -34957,7 +34954,7 @@
       <c r="G459" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H459" s="7" t="s">
+      <c r="H459" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I459" s="3">
@@ -35001,7 +34998,7 @@
       <c r="G460" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H460" s="7" t="s">
+      <c r="H460" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I460" s="3">
@@ -35045,7 +35042,7 @@
       <c r="G461" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H461" s="7" t="s">
+      <c r="H461" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I461" s="3">
@@ -35089,7 +35086,7 @@
       <c r="G462" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H462" s="7" t="s">
+      <c r="H462" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I462" s="3">
@@ -35133,7 +35130,7 @@
       <c r="G463" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H463" s="7" t="s">
+      <c r="H463" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I463" s="3">
@@ -35177,7 +35174,7 @@
       <c r="G464" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H464" s="7" t="s">
+      <c r="H464" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I464" s="3">
@@ -35221,7 +35218,7 @@
       <c r="G465" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H465" s="7" t="s">
+      <c r="H465" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I465" s="3">
@@ -35265,7 +35262,7 @@
       <c r="G466" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H466" s="7" t="s">
+      <c r="H466" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I466" s="3">
@@ -35309,7 +35306,7 @@
       <c r="G467" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H467" s="7" t="s">
+      <c r="H467" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I467" s="3">
@@ -35353,7 +35350,7 @@
       <c r="G468" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H468" s="7" t="s">
+      <c r="H468" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I468" s="3">
@@ -35397,7 +35394,7 @@
       <c r="G469" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H469" s="7" t="s">
+      <c r="H469" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I469" s="3">
@@ -35441,7 +35438,7 @@
       <c r="G470" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H470" s="7" t="s">
+      <c r="H470" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I470" s="3">
@@ -35485,7 +35482,7 @@
       <c r="G471" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H471" s="7" t="s">
+      <c r="H471" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I471" s="3">
@@ -35529,7 +35526,7 @@
       <c r="G472" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H472" s="7" t="s">
+      <c r="H472" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I472" s="3">
@@ -35573,7 +35570,7 @@
       <c r="G473" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H473" s="7" t="s">
+      <c r="H473" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I473" s="3">
@@ -35617,7 +35614,7 @@
       <c r="G474" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H474" s="7" t="s">
+      <c r="H474" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I474" s="3">
@@ -35661,7 +35658,7 @@
       <c r="G475" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H475" s="7" t="s">
+      <c r="H475" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I475" s="3">
@@ -35705,7 +35702,7 @@
       <c r="G476" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H476" s="7" t="s">
+      <c r="H476" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I476" s="3">
@@ -35749,7 +35746,7 @@
       <c r="G477" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H477" s="7" t="s">
+      <c r="H477" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I477" s="3">
@@ -35793,7 +35790,7 @@
       <c r="G478" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H478" s="7" t="s">
+      <c r="H478" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I478" s="3">
@@ -35837,7 +35834,7 @@
       <c r="G479" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H479" s="7" t="s">
+      <c r="H479" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I479" s="3">
@@ -35881,7 +35878,7 @@
       <c r="G480" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H480" s="7" t="s">
+      <c r="H480" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I480" s="3">
@@ -35925,7 +35922,7 @@
       <c r="G481" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H481" s="7" t="s">
+      <c r="H481" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I481" s="3">
@@ -35969,7 +35966,7 @@
       <c r="G482" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H482" s="7" t="s">
+      <c r="H482" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I482" s="3">
@@ -36013,7 +36010,7 @@
       <c r="G483" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H483" s="7" t="s">
+      <c r="H483" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I483" s="3">
@@ -36057,7 +36054,7 @@
       <c r="G484" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H484" s="7" t="s">
+      <c r="H484" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I484" s="3">
@@ -36101,7 +36098,7 @@
       <c r="G485" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H485" s="7" t="s">
+      <c r="H485" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I485" s="3">
@@ -36145,7 +36142,7 @@
       <c r="G486" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H486" s="7" t="s">
+      <c r="H486" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I486" s="3">
@@ -36189,7 +36186,7 @@
       <c r="G487" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H487" s="7" t="s">
+      <c r="H487" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I487" s="3">
@@ -36233,7 +36230,7 @@
       <c r="G488" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H488" s="7" t="s">
+      <c r="H488" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I488" s="3">
@@ -36277,7 +36274,7 @@
       <c r="G489" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H489" s="7" t="s">
+      <c r="H489" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I489" s="3">
@@ -36321,7 +36318,7 @@
       <c r="G490" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H490" s="7" t="s">
+      <c r="H490" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I490" s="3">
@@ -36365,7 +36362,7 @@
       <c r="G491" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H491" s="7" t="s">
+      <c r="H491" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I491" s="3">
@@ -36409,7 +36406,7 @@
       <c r="G492" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H492" s="7" t="s">
+      <c r="H492" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I492" s="3">
@@ -36453,7 +36450,7 @@
       <c r="G493" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H493" s="7" t="s">
+      <c r="H493" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I493" s="3">
@@ -36497,7 +36494,7 @@
       <c r="G494" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H494" s="7" t="s">
+      <c r="H494" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I494" s="3">
@@ -36541,7 +36538,7 @@
       <c r="G495" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H495" s="7" t="s">
+      <c r="H495" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I495" s="3">
@@ -36585,7 +36582,7 @@
       <c r="G496" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H496" s="7" t="s">
+      <c r="H496" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I496" s="3">
@@ -36629,7 +36626,7 @@
       <c r="G497" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H497" s="7" t="s">
+      <c r="H497" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I497" s="3">
@@ -36673,7 +36670,7 @@
       <c r="G498" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H498" s="7" t="s">
+      <c r="H498" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I498" s="3">
@@ -36717,7 +36714,7 @@
       <c r="G499" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H499" s="7" t="s">
+      <c r="H499" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I499" s="3">
@@ -36761,7 +36758,7 @@
       <c r="G500" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H500" s="7" t="s">
+      <c r="H500" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I500" s="3">
@@ -36805,7 +36802,7 @@
       <c r="G501" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H501" s="7" t="s">
+      <c r="H501" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I501" s="3">
@@ -36837,8 +36834,8 @@
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B252" sqref="B252"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G293" sqref="G293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52424,263 +52421,3113 @@
       <c r="A252" s="3">
         <v>251</v>
       </c>
+      <c r="B252" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F252" s="3">
+        <v>2</v>
+      </c>
+      <c r="G252" s="3">
+        <v>2</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S252" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>252</v>
       </c>
+      <c r="B253" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C253" s="3">
+        <v>1</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F253" s="3">
+        <v>3</v>
+      </c>
+      <c r="G253" s="3">
+        <v>3</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q253" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>253</v>
       </c>
+      <c r="B254" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F254" s="3">
+        <v>2</v>
+      </c>
+      <c r="G254" s="3">
+        <v>2</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R254" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S254" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>254</v>
       </c>
+      <c r="B255" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F255" s="3">
+        <v>2</v>
+      </c>
+      <c r="G255" s="3">
+        <v>3</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R255" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T255" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F256" s="3">
+        <v>3</v>
+      </c>
+      <c r="G256" s="3">
+        <v>3</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C257" s="3">
+        <v>1</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F257" s="3">
+        <v>3</v>
+      </c>
+      <c r="G257" s="3">
+        <v>2</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S257" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T257" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F258" s="3">
+        <v>3</v>
+      </c>
+      <c r="G258" s="3">
+        <v>2</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R258" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T258" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C259" s="3">
+        <v>1</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F259" s="3">
+        <v>3</v>
+      </c>
+      <c r="G259" s="3">
+        <v>2</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T259" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C260" s="3">
+        <v>1</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F260" s="3">
+        <v>3</v>
+      </c>
+      <c r="G260" s="3">
+        <v>3</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q260" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S260" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T260" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C261" s="3">
+        <v>2</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F261" s="3">
+        <v>3</v>
+      </c>
+      <c r="G261" s="3">
+        <v>3</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q261" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S261" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T261" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C262" s="3">
+        <v>1</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F262" s="3">
+        <v>3</v>
+      </c>
+      <c r="G262" s="3">
+        <v>2</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S262" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T262" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C263" s="3">
+        <v>2</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F263" s="3">
+        <v>3</v>
+      </c>
+      <c r="G263" s="3">
+        <v>2</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q263" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S263" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T263" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C264" s="3">
+        <v>2</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F264" s="3">
+        <v>2</v>
+      </c>
+      <c r="G264" s="3">
+        <v>3</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q264" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S264" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T264" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C265" s="3">
+        <v>1</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F265" s="3">
+        <v>3</v>
+      </c>
+      <c r="G265" s="3">
+        <v>2</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T265" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F266" s="3">
+        <v>2</v>
+      </c>
+      <c r="G266" s="3">
+        <v>2</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q266" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T266" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+      <c r="G267" s="3">
+        <v>2</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R267" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S267" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T267" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F268" s="3">
+        <v>3</v>
+      </c>
+      <c r="G268" s="3">
+        <v>3</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S268" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T268" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C269" s="3">
+        <v>1</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F269" s="3">
+        <v>2</v>
+      </c>
+      <c r="G269" s="3">
+        <v>2</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S269" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T269" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C270" s="3">
+        <v>1</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F270" s="3">
+        <v>3</v>
+      </c>
+      <c r="G270" s="3">
+        <v>1</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S270" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T270" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C271" s="3">
+        <v>1</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F271" s="3">
+        <v>2</v>
+      </c>
+      <c r="G271" s="3">
+        <v>2</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S271" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T271" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C272" s="3">
+        <v>1</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F272" s="3">
+        <v>3</v>
+      </c>
+      <c r="G272" s="3">
+        <v>3</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R272" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T272" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C273" s="3">
+        <v>1</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F273" s="3">
+        <v>2</v>
+      </c>
+      <c r="G273" s="3">
+        <v>3</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q273" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T273" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F274" s="3">
+        <v>3</v>
+      </c>
+      <c r="G274" s="3">
+        <v>3</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S274" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T274" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F275" s="3">
+        <v>3</v>
+      </c>
+      <c r="G275" s="3">
+        <v>3</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S275" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T275" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C276" s="3">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F276" s="3">
+        <v>3</v>
+      </c>
+      <c r="G276" s="3">
+        <v>2</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q276" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S276" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T276" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F277" s="3">
+        <v>3</v>
+      </c>
+      <c r="G277" s="3">
+        <v>2</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S277" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T277" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C278" s="3">
+        <v>1</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F278" s="3">
+        <v>3</v>
+      </c>
+      <c r="G278" s="3">
+        <v>3</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R278" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S278" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T278" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C279" s="3">
+        <v>2</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F279" s="3">
+        <v>3</v>
+      </c>
+      <c r="G279" s="3">
+        <v>2</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S279" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T279" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F280" s="3">
+        <v>2</v>
+      </c>
+      <c r="G280" s="3">
+        <v>2</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q280" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S280" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C281" s="3">
+        <v>2</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F281" s="3">
+        <v>3</v>
+      </c>
+      <c r="G281" s="3">
+        <v>2</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q281" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S281" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T281" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F282" s="3">
+        <v>3</v>
+      </c>
+      <c r="G282" s="3">
+        <v>2</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S282" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T282" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C283" s="3">
+        <v>2</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F283" s="3">
+        <v>2</v>
+      </c>
+      <c r="G283" s="3">
+        <v>2</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S283" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T283" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C284" s="3">
+        <v>2</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F284" s="3">
+        <v>3</v>
+      </c>
+      <c r="G284" s="3">
+        <v>2</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R284" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S284" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T284" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F285" s="3">
+        <v>3</v>
+      </c>
+      <c r="G285" s="3">
+        <v>3</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T285" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C286" s="3">
+        <v>1</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F286" s="3">
+        <v>2</v>
+      </c>
+      <c r="G286" s="3">
+        <v>3</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T286" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F287" s="3">
+        <v>2</v>
+      </c>
+      <c r="G287" s="3">
+        <v>2</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q287" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S287" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T287" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F288" s="3">
+        <v>2</v>
+      </c>
+      <c r="G288" s="3">
+        <v>2</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P288" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S288" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T288" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C289" s="3">
+        <v>1</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F289" s="3">
+        <v>3</v>
+      </c>
+      <c r="G289" s="3">
+        <v>3</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T289" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C290" s="3">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F290" s="3">
+        <v>3</v>
+      </c>
+      <c r="G290" s="3">
+        <v>2</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R290" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S290" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T290" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C291" s="3">
+        <v>1</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F291" s="3">
+        <v>2</v>
+      </c>
+      <c r="G291" s="3">
+        <v>3</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q291" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S291" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T291" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C292" s="3">
+        <v>1</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F292" s="3">
+        <v>3</v>
+      </c>
+      <c r="G292" s="3">
+        <v>3</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T292" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C293" s="3">
+        <v>1</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F293" s="3">
+        <v>1</v>
+      </c>
+      <c r="G293" s="3">
+        <v>2</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q293" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S293" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T293" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F294" s="3">
+        <v>2</v>
+      </c>
+      <c r="G294" s="3">
+        <v>3</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q294" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S294" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T294" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F295" s="3">
+        <v>3</v>
+      </c>
+      <c r="G295" s="3">
+        <v>2</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S295" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T295" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C296" s="3">
+        <v>1</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F296" s="3">
+        <v>2</v>
+      </c>
+      <c r="G296" s="3">
+        <v>3</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q296" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T296" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F297" s="3">
+        <v>2</v>
+      </c>
+      <c r="G297" s="3">
+        <v>3</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q297" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T297" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C298" s="3">
+        <v>1</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F298" s="3">
+        <v>3</v>
+      </c>
+      <c r="G298" s="3">
+        <v>3</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q298" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T298" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C299" s="3">
+        <v>1</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F299" s="3">
+        <v>3</v>
+      </c>
+      <c r="G299" s="3">
+        <v>3</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q299" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S299" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T299" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C300" s="3">
+        <v>2</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F300" s="3">
+        <v>3</v>
+      </c>
+      <c r="G300" s="3">
+        <v>3</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q300" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T300" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B301" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C301" s="3">
+        <v>1</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F301" s="3">
+        <v>3</v>
+      </c>
+      <c r="G301" s="3">
+        <v>3</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P301" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T301" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>303</v>
       </c>

--- a/Stimuli Metadata/500-Stimuli-Metadata.xlsx
+++ b/Stimuli Metadata/500-Stimuli-Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarunku5/Desktop/Supp-Final/Stimuli Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarunku5/Documents/GitHub/Image-or-Information-Vis-2023/Stimuli Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C72B1-D2DC-A345-9A74-0518067DD0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7DC425-AF64-4548-939A-699FE79E0A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" activeTab="2" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
+    <workbookView xWindow="16940" yWindow="740" windowWidth="12460" windowHeight="16840" activeTab="2" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Provenance and Purpose" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,6 +1397,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -36833,9 +36836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050645B-9444-7441-AD4C-0BD23B188D0D}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T501" sqref="T501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -55534,13 +55537,13 @@
         <v>412</v>
       </c>
       <c r="F302" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G302" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I302" s="3" t="s">
         <v>35</v>
@@ -55549,16 +55552,16 @@
         <v>35</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M302" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O302" s="3" t="s">
         <v>34</v>
@@ -55570,7 +55573,7 @@
         <v>35</v>
       </c>
       <c r="R302" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S302" s="3" t="s">
         <v>34</v>
@@ -55596,10 +55599,10 @@
         <v>413</v>
       </c>
       <c r="F303" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G303" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>34</v>
@@ -55611,10 +55614,10 @@
         <v>35</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M303" s="3" t="s">
         <v>35</v>
@@ -55623,19 +55626,19 @@
         <v>34</v>
       </c>
       <c r="O303" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P303" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q303" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R303" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S303" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T303" s="3" t="s">
         <v>34</v>
@@ -55658,7 +55661,7 @@
         <v>418</v>
       </c>
       <c r="F304" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G304" s="3">
         <v>2</v>
@@ -55673,7 +55676,7 @@
         <v>35</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L304" s="3" t="s">
         <v>34</v>
@@ -55688,7 +55691,7 @@
         <v>34</v>
       </c>
       <c r="P304" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q304" s="3" t="s">
         <v>35</v>
@@ -55700,7 +55703,7 @@
         <v>34</v>
       </c>
       <c r="T304" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:20" x14ac:dyDescent="0.2">
@@ -55720,7 +55723,7 @@
         <v>413</v>
       </c>
       <c r="F305" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G305" s="3">
         <v>2</v>
@@ -55738,7 +55741,7 @@
         <v>34</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M305" s="3" t="s">
         <v>35</v>
@@ -55750,19 +55753,19 @@
         <v>35</v>
       </c>
       <c r="P305" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q305" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R305" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S305" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T305" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:20" x14ac:dyDescent="0.2">
@@ -55782,7 +55785,7 @@
         <v>413</v>
       </c>
       <c r="F306" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G306" s="3">
         <v>2</v>
@@ -55791,13 +55794,13 @@
         <v>35</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L306" s="3" t="s">
         <v>35</v>
@@ -55821,10 +55824,10 @@
         <v>35</v>
       </c>
       <c r="S306" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T306" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:20" x14ac:dyDescent="0.2">
@@ -55844,25 +55847,25 @@
         <v>413</v>
       </c>
       <c r="F307" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G307" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I307" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M307" s="3" t="s">
         <v>35</v>
@@ -55877,7 +55880,7 @@
         <v>34</v>
       </c>
       <c r="Q307" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R307" s="3" t="s">
         <v>34</v>
@@ -55886,7 +55889,7 @@
         <v>34</v>
       </c>
       <c r="T307" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="308" spans="1:20" x14ac:dyDescent="0.2">
@@ -55906,7 +55909,7 @@
         <v>413</v>
       </c>
       <c r="F308" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G308" s="3">
         <v>2</v>
@@ -55930,10 +55933,10 @@
         <v>35</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P308" s="3" t="s">
         <v>34</v>
@@ -55968,7 +55971,7 @@
         <v>413</v>
       </c>
       <c r="F309" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G309" s="3">
         <v>2</v>
@@ -56001,13 +56004,13 @@
         <v>34</v>
       </c>
       <c r="Q309" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R309" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S309" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T309" s="3" t="s">
         <v>34</v>
@@ -56030,7 +56033,7 @@
         <v>413</v>
       </c>
       <c r="F310" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G310" s="3">
         <v>2</v>
@@ -56042,13 +56045,13 @@
         <v>35</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K310" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M310" s="3" t="s">
         <v>35</v>
@@ -56095,7 +56098,7 @@
         <v>2</v>
       </c>
       <c r="G311" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" s="3" t="s">
         <v>34</v>
@@ -56107,22 +56110,22 @@
         <v>34</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M311" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O311" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P311" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q311" s="3" t="s">
         <v>35</v>
@@ -56154,7 +56157,7 @@
         <v>413</v>
       </c>
       <c r="F312" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G312" s="3">
         <v>2</v>
@@ -56163,7 +56166,7 @@
         <v>34</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J312" s="3" t="s">
         <v>35</v>
@@ -56172,10 +56175,10 @@
         <v>34</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N312" s="3" t="s">
         <v>34</v>
@@ -56193,7 +56196,7 @@
         <v>34</v>
       </c>
       <c r="S312" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T312" s="3" t="s">
         <v>34</v>
@@ -56219,22 +56222,22 @@
         <v>2</v>
       </c>
       <c r="G313" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K313" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M313" s="3" t="s">
         <v>35</v>
@@ -56243,16 +56246,16 @@
         <v>34</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P313" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q313" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R313" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S313" s="3" t="s">
         <v>34</v>
@@ -56278,10 +56281,10 @@
         <v>412</v>
       </c>
       <c r="F314" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G314" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H314" s="3" t="s">
         <v>34</v>
@@ -56299,19 +56302,19 @@
         <v>35</v>
       </c>
       <c r="M314" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N314" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P314" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q314" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R314" s="3" t="s">
         <v>34</v>
@@ -56343,7 +56346,7 @@
         <v>1</v>
       </c>
       <c r="G315" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H315" s="3" t="s">
         <v>34</v>
@@ -56352,7 +56355,7 @@
         <v>35</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K315" s="3" t="s">
         <v>34</v>
@@ -56367,13 +56370,13 @@
         <v>34</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P315" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q315" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R315" s="3" t="s">
         <v>34</v>
@@ -56402,7 +56405,7 @@
         <v>416</v>
       </c>
       <c r="F316" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G316" s="3">
         <v>2</v>
@@ -56414,25 +56417,25 @@
         <v>35</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K316" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M316" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N316" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P316" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q316" s="3" t="s">
         <v>35</v>
@@ -56441,7 +56444,7 @@
         <v>34</v>
       </c>
       <c r="S316" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T316" s="3" t="s">
         <v>34</v>
@@ -56464,7 +56467,7 @@
         <v>416</v>
       </c>
       <c r="F317" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G317" s="3">
         <v>2</v>
@@ -56473,7 +56476,7 @@
         <v>34</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J317" s="3" t="s">
         <v>35</v>
@@ -56482,7 +56485,7 @@
         <v>34</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M317" s="3" t="s">
         <v>35</v>
@@ -56494,7 +56497,7 @@
         <v>34</v>
       </c>
       <c r="P317" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q317" s="3" t="s">
         <v>35</v>
@@ -56503,7 +56506,7 @@
         <v>34</v>
       </c>
       <c r="S317" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T317" s="3" t="s">
         <v>34</v>
@@ -56526,13 +56529,13 @@
         <v>413</v>
       </c>
       <c r="F318" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G318" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I318" s="3" t="s">
         <v>34</v>
@@ -56541,7 +56544,7 @@
         <v>35</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L318" s="3" t="s">
         <v>35</v>
@@ -56553,7 +56556,7 @@
         <v>34</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P318" s="3" t="s">
         <v>34</v>
@@ -56591,7 +56594,7 @@
         <v>2</v>
       </c>
       <c r="G319" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>34</v>
@@ -56600,28 +56603,28 @@
         <v>35</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N319" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P319" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R319" s="3" t="s">
         <v>34</v>
@@ -56630,7 +56633,7 @@
         <v>34</v>
       </c>
       <c r="T319" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:20" x14ac:dyDescent="0.2">
@@ -56650,7 +56653,7 @@
         <v>412</v>
       </c>
       <c r="F320" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G320" s="3">
         <v>3</v>
@@ -56668,19 +56671,19 @@
         <v>34</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M320" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P320" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q320" s="3" t="s">
         <v>35</v>
@@ -56689,10 +56692,10 @@
         <v>35</v>
       </c>
       <c r="S320" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T320" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321" spans="1:20" x14ac:dyDescent="0.2">
@@ -56718,22 +56721,22 @@
         <v>3</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J321" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L321" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M321" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N321" s="3" t="s">
         <v>34</v>
@@ -56754,7 +56757,7 @@
         <v>34</v>
       </c>
       <c r="T321" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:20" x14ac:dyDescent="0.2">
@@ -56774,13 +56777,13 @@
         <v>412</v>
       </c>
       <c r="F322" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G322" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>35</v>
@@ -56789,13 +56792,13 @@
         <v>35</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L322" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M322" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N322" s="3" t="s">
         <v>34</v>
@@ -56804,19 +56807,19 @@
         <v>35</v>
       </c>
       <c r="P322" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q322" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R322" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S322" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T322" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="323" spans="1:20" x14ac:dyDescent="0.2">
@@ -56836,34 +56839,34 @@
         <v>416</v>
       </c>
       <c r="F323" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G323" s="3">
         <v>2</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M323" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P323" s="3" t="s">
         <v>35</v>
@@ -56875,10 +56878,10 @@
         <v>34</v>
       </c>
       <c r="S323" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T323" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:20" x14ac:dyDescent="0.2">
@@ -56904,10 +56907,10 @@
         <v>3</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J324" s="3" t="s">
         <v>35</v>
@@ -56916,16 +56919,16 @@
         <v>34</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M324" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N324" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P324" s="3" t="s">
         <v>34</v>
@@ -56960,25 +56963,25 @@
         <v>413</v>
       </c>
       <c r="F325" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G325" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K325" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M325" s="3" t="s">
         <v>35</v>
@@ -56987,10 +56990,10 @@
         <v>34</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P325" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q325" s="3" t="s">
         <v>35</v>
@@ -57022,7 +57025,7 @@
         <v>416</v>
       </c>
       <c r="F326" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G326" s="3">
         <v>3</v>
@@ -57031,7 +57034,7 @@
         <v>35</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J326" s="3" t="s">
         <v>35</v>
@@ -57040,13 +57043,13 @@
         <v>35</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M326" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N326" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O326" s="3" t="s">
         <v>34</v>
@@ -57084,13 +57087,13 @@
         <v>413</v>
       </c>
       <c r="F327" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G327" s="3">
         <v>3</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I327" s="3" t="s">
         <v>34</v>
@@ -57102,22 +57105,22 @@
         <v>35</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M327" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N327" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P327" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q327" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R327" s="3" t="s">
         <v>34</v>
@@ -57161,10 +57164,10 @@
         <v>35</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M328" s="3" t="s">
         <v>35</v>
@@ -57179,7 +57182,7 @@
         <v>34</v>
       </c>
       <c r="Q328" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R328" s="3" t="s">
         <v>34</v>
@@ -57214,7 +57217,7 @@
         <v>3</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I329" s="3" t="s">
         <v>34</v>
@@ -57223,10 +57226,10 @@
         <v>35</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M329" s="3" t="s">
         <v>35</v>
@@ -57235,7 +57238,7 @@
         <v>34</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P329" s="3" t="s">
         <v>34</v>
@@ -57270,16 +57273,16 @@
         <v>413</v>
       </c>
       <c r="F330" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G330" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J330" s="3" t="s">
         <v>35</v>
@@ -57291,7 +57294,7 @@
         <v>34</v>
       </c>
       <c r="M330" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N330" s="3" t="s">
         <v>34</v>
@@ -57300,16 +57303,16 @@
         <v>34</v>
       </c>
       <c r="P330" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q330" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R330" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S330" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T330" s="3" t="s">
         <v>34</v>
@@ -57332,7 +57335,7 @@
         <v>413</v>
       </c>
       <c r="F331" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G331" s="3">
         <v>3</v>
@@ -57347,13 +57350,13 @@
         <v>35</v>
       </c>
       <c r="K331" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L331" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M331" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N331" s="3" t="s">
         <v>34</v>
@@ -57394,16 +57397,16 @@
         <v>419</v>
       </c>
       <c r="F332" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G332" s="3">
         <v>3</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J332" s="3" t="s">
         <v>35</v>
@@ -57415,7 +57418,7 @@
         <v>34</v>
       </c>
       <c r="M332" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N332" s="3" t="s">
         <v>34</v>
@@ -57430,10 +57433,10 @@
         <v>35</v>
       </c>
       <c r="R332" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S332" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T332" s="3" t="s">
         <v>34</v>
@@ -57456,28 +57459,28 @@
         <v>413</v>
       </c>
       <c r="F333" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G333" s="3">
         <v>2</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I333" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K333" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L333" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M333" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N333" s="3" t="s">
         <v>34</v>
@@ -57486,7 +57489,7 @@
         <v>34</v>
       </c>
       <c r="P333" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q333" s="3" t="s">
         <v>35</v>
@@ -57518,13 +57521,13 @@
         <v>413</v>
       </c>
       <c r="F334" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G334" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I334" s="3" t="s">
         <v>34</v>
@@ -57536,7 +57539,7 @@
         <v>34</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M334" s="3" t="s">
         <v>35</v>
@@ -57545,7 +57548,7 @@
         <v>34</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P334" s="3" t="s">
         <v>34</v>
@@ -57580,16 +57583,16 @@
         <v>413</v>
       </c>
       <c r="F335" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G335" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J335" s="3" t="s">
         <v>35</v>
@@ -57601,7 +57604,7 @@
         <v>34</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N335" s="3" t="s">
         <v>34</v>
@@ -57648,7 +57651,7 @@
         <v>3</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I336" s="3" t="s">
         <v>35</v>
@@ -57681,7 +57684,7 @@
         <v>34</v>
       </c>
       <c r="S336" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T336" s="3" t="s">
         <v>34</v>
@@ -57704,10 +57707,10 @@
         <v>419</v>
       </c>
       <c r="F337" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G337" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>35</v>
@@ -57716,13 +57719,13 @@
         <v>35</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K337" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L337" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M337" s="3" t="s">
         <v>35</v>
@@ -57731,7 +57734,7 @@
         <v>34</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P337" s="3" t="s">
         <v>34</v>
@@ -57766,10 +57769,10 @@
         <v>413</v>
       </c>
       <c r="F338" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G338" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>34</v>
@@ -57778,22 +57781,22 @@
         <v>34</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K338" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L338" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M338" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N338" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P338" s="3" t="s">
         <v>34</v>
@@ -57834,19 +57837,19 @@
         <v>3</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K339" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L339" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M339" s="3" t="s">
         <v>35</v>
@@ -57855,7 +57858,7 @@
         <v>34</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P339" s="3" t="s">
         <v>34</v>
@@ -57867,10 +57870,10 @@
         <v>34</v>
       </c>
       <c r="S339" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T339" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="340" spans="1:20" x14ac:dyDescent="0.2">
@@ -57893,10 +57896,10 @@
         <v>3</v>
       </c>
       <c r="G340" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I340" s="3" t="s">
         <v>34</v>
@@ -57908,16 +57911,16 @@
         <v>34</v>
       </c>
       <c r="L340" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M340" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N340" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P340" s="3" t="s">
         <v>34</v>
@@ -57929,7 +57932,7 @@
         <v>34</v>
       </c>
       <c r="S340" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T340" s="3" t="s">
         <v>34</v>
@@ -57955,7 +57958,7 @@
         <v>3</v>
       </c>
       <c r="G341" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H341" s="3" t="s">
         <v>34</v>
@@ -57964,13 +57967,13 @@
         <v>34</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K341" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L341" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M341" s="3" t="s">
         <v>35</v>
@@ -57979,7 +57982,7 @@
         <v>34</v>
       </c>
       <c r="O341" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P341" s="3" t="s">
         <v>34</v>
@@ -58014,25 +58017,25 @@
         <v>413</v>
       </c>
       <c r="F342" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G342" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K342" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L342" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M342" s="3" t="s">
         <v>35</v>
@@ -58041,22 +58044,22 @@
         <v>34</v>
       </c>
       <c r="O342" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P342" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q342" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R342" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S342" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T342" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:20" x14ac:dyDescent="0.2">
@@ -58076,13 +58079,13 @@
         <v>412</v>
       </c>
       <c r="F343" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G343" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I343" s="3" t="s">
         <v>35</v>
@@ -58091,13 +58094,13 @@
         <v>35</v>
       </c>
       <c r="K343" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M343" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N343" s="3" t="s">
         <v>34</v>
@@ -58109,7 +58112,7 @@
         <v>34</v>
       </c>
       <c r="Q343" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R343" s="3" t="s">
         <v>34</v>
@@ -58138,10 +58141,10 @@
         <v>413</v>
       </c>
       <c r="F344" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G344" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>34</v>
@@ -58150,28 +58153,28 @@
         <v>34</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M344" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P344" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q344" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R344" s="3" t="s">
         <v>34</v>
@@ -58200,25 +58203,25 @@
         <v>416</v>
       </c>
       <c r="F345" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G345" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K345" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M345" s="3" t="s">
         <v>35</v>
@@ -58227,10 +58230,10 @@
         <v>34</v>
       </c>
       <c r="O345" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P345" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q345" s="3" t="s">
         <v>35</v>
@@ -58239,7 +58242,7 @@
         <v>34</v>
       </c>
       <c r="S345" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T345" s="3" t="s">
         <v>34</v>
@@ -58262,10 +58265,10 @@
         <v>418</v>
       </c>
       <c r="F346" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G346" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>34</v>
@@ -58274,10 +58277,10 @@
         <v>35</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L346" s="3" t="s">
         <v>35</v>
@@ -58286,7 +58289,7 @@
         <v>35</v>
       </c>
       <c r="N346" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O346" s="3" t="s">
         <v>34</v>
@@ -58295,7 +58298,7 @@
         <v>35</v>
       </c>
       <c r="Q346" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R346" s="3" t="s">
         <v>34</v>
@@ -58327,7 +58330,7 @@
         <v>3</v>
       </c>
       <c r="G347" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H347" s="3" t="s">
         <v>34</v>
@@ -58336,13 +58339,13 @@
         <v>34</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K347" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L347" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M347" s="3" t="s">
         <v>35</v>
@@ -58386,10 +58389,10 @@
         <v>413</v>
       </c>
       <c r="F348" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G348" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" s="3" t="s">
         <v>34</v>
@@ -58401,7 +58404,7 @@
         <v>34</v>
       </c>
       <c r="K348" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L348" s="3" t="s">
         <v>34</v>
@@ -58416,19 +58419,19 @@
         <v>34</v>
       </c>
       <c r="P348" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q348" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R348" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S348" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T348" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="349" spans="1:20" x14ac:dyDescent="0.2">
@@ -58448,25 +58451,25 @@
         <v>413</v>
       </c>
       <c r="F349" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G349" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I349" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K349" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L349" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M349" s="3" t="s">
         <v>35</v>
@@ -58516,7 +58519,7 @@
         <v>3</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I350" s="3" t="s">
         <v>34</v>
@@ -58525,7 +58528,7 @@
         <v>35</v>
       </c>
       <c r="K350" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L350" s="3" t="s">
         <v>34</v>
@@ -58534,7 +58537,7 @@
         <v>35</v>
       </c>
       <c r="N350" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O350" s="3" t="s">
         <v>34</v>
@@ -58549,7 +58552,7 @@
         <v>34</v>
       </c>
       <c r="S350" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T350" s="3" t="s">
         <v>34</v>
@@ -58572,10 +58575,10 @@
         <v>413</v>
       </c>
       <c r="F351" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G351" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>35</v>
@@ -58587,10 +58590,10 @@
         <v>35</v>
       </c>
       <c r="K351" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L351" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M351" s="3" t="s">
         <v>35</v>
@@ -58599,7 +58602,7 @@
         <v>34</v>
       </c>
       <c r="O351" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P351" s="3" t="s">
         <v>34</v>
@@ -58640,28 +58643,28 @@
         <v>3</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L352" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O352" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P352" s="3" t="s">
         <v>34</v>
@@ -58696,7 +58699,7 @@
         <v>418</v>
       </c>
       <c r="F353" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G353" s="3">
         <v>3</v>
@@ -58708,16 +58711,16 @@
         <v>35</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L353" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N353" s="3" t="s">
         <v>34</v>
@@ -58726,16 +58729,16 @@
         <v>35</v>
       </c>
       <c r="P353" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q353" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R353" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S353" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T353" s="3" t="s">
         <v>34</v>
@@ -58758,7 +58761,7 @@
         <v>413</v>
       </c>
       <c r="F354" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G354" s="3">
         <v>3</v>
@@ -58770,16 +58773,16 @@
         <v>34</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L354" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N354" s="3" t="s">
         <v>34</v>
@@ -58788,16 +58791,16 @@
         <v>35</v>
       </c>
       <c r="P354" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q354" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R354" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S354" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T354" s="3" t="s">
         <v>34</v>
@@ -58820,10 +58823,10 @@
         <v>413</v>
       </c>
       <c r="F355" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G355" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H355" s="3" t="s">
         <v>34</v>
@@ -58832,19 +58835,19 @@
         <v>34</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K355" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L355" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M355" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N355" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O355" s="3" t="s">
         <v>35</v>
@@ -58856,7 +58859,7 @@
         <v>35</v>
       </c>
       <c r="R355" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S355" s="3" t="s">
         <v>34</v>
@@ -58882,16 +58885,16 @@
         <v>413</v>
       </c>
       <c r="F356" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G356" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J356" s="3" t="s">
         <v>35</v>
@@ -58906,19 +58909,19 @@
         <v>35</v>
       </c>
       <c r="N356" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O356" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P356" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q356" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R356" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S356" s="3" t="s">
         <v>34</v>
@@ -58944,25 +58947,25 @@
         <v>418</v>
       </c>
       <c r="F357" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G357" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I357" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M357" s="3" t="s">
         <v>35</v>
@@ -58977,13 +58980,13 @@
         <v>35</v>
       </c>
       <c r="Q357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R357" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S357" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T357" s="3" t="s">
         <v>34</v>
@@ -59006,40 +59009,40 @@
         <v>413</v>
       </c>
       <c r="F358" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G358" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I358" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K358" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M358" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N358" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P358" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R358" s="3" t="s">
         <v>34</v>
@@ -59048,7 +59051,7 @@
         <v>34</v>
       </c>
       <c r="T358" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="359" spans="1:20" x14ac:dyDescent="0.2">
@@ -59071,10 +59074,10 @@
         <v>3</v>
       </c>
       <c r="G359" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I359" s="3" t="s">
         <v>35</v>
@@ -59089,28 +59092,28 @@
         <v>34</v>
       </c>
       <c r="M359" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N359" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O359" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P359" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q359" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R359" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S359" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T359" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:20" x14ac:dyDescent="0.2">
@@ -59136,7 +59139,7 @@
         <v>3</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I360" s="3" t="s">
         <v>35</v>
@@ -59160,19 +59163,19 @@
         <v>34</v>
       </c>
       <c r="P360" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q360" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R360" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S360" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T360" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="1:20" x14ac:dyDescent="0.2">
@@ -59195,34 +59198,34 @@
         <v>2</v>
       </c>
       <c r="G361" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I361" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M361" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O361" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P361" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q361" s="3" t="s">
         <v>35</v>
@@ -59260,16 +59263,16 @@
         <v>2</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K362" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L362" s="3" t="s">
         <v>35</v>
@@ -59278,7 +59281,7 @@
         <v>35</v>
       </c>
       <c r="N362" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O362" s="3" t="s">
         <v>34</v>
@@ -59290,13 +59293,13 @@
         <v>35</v>
       </c>
       <c r="R362" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S362" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T362" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="363" spans="1:20" x14ac:dyDescent="0.2">
@@ -59316,22 +59319,22 @@
         <v>413</v>
       </c>
       <c r="F363" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G363" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J363" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L363" s="3" t="s">
         <v>34</v>
@@ -59340,13 +59343,13 @@
         <v>35</v>
       </c>
       <c r="N363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O363" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q363" s="3" t="s">
         <v>35</v>
@@ -59358,7 +59361,7 @@
         <v>34</v>
       </c>
       <c r="T363" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="364" spans="1:20" x14ac:dyDescent="0.2">
@@ -59378,13 +59381,13 @@
         <v>413</v>
       </c>
       <c r="F364" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G364" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I364" s="3" t="s">
         <v>34</v>
@@ -59393,7 +59396,7 @@
         <v>34</v>
       </c>
       <c r="K364" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L364" s="3" t="s">
         <v>35</v>
@@ -59405,7 +59408,7 @@
         <v>34</v>
       </c>
       <c r="O364" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P364" s="3" t="s">
         <v>34</v>
@@ -59455,19 +59458,19 @@
         <v>35</v>
       </c>
       <c r="K365" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L365" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M365" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N365" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O365" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P365" s="3" t="s">
         <v>35</v>
@@ -59479,10 +59482,10 @@
         <v>35</v>
       </c>
       <c r="S365" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T365" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="366" spans="1:20" x14ac:dyDescent="0.2">
@@ -59502,13 +59505,13 @@
         <v>413</v>
       </c>
       <c r="F366" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G366" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I366" s="3" t="s">
         <v>35</v>
@@ -59517,7 +59520,7 @@
         <v>35</v>
       </c>
       <c r="K366" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L366" s="3" t="s">
         <v>35</v>
@@ -59532,16 +59535,16 @@
         <v>35</v>
       </c>
       <c r="P366" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q366" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R366" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S366" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T366" s="3" t="s">
         <v>34</v>
@@ -59570,19 +59573,19 @@
         <v>3</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K367" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L367" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M367" s="3" t="s">
         <v>35</v>
@@ -59603,7 +59606,7 @@
         <v>34</v>
       </c>
       <c r="S367" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T367" s="3" t="s">
         <v>34</v>
@@ -59626,16 +59629,16 @@
         <v>413</v>
       </c>
       <c r="F368" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G368" s="3">
         <v>3</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J368" s="3" t="s">
         <v>35</v>
@@ -59653,7 +59656,7 @@
         <v>34</v>
       </c>
       <c r="O368" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P368" s="3" t="s">
         <v>34</v>
@@ -59662,7 +59665,7 @@
         <v>35</v>
       </c>
       <c r="R368" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S368" s="3" t="s">
         <v>34</v>
@@ -59688,46 +59691,46 @@
         <v>413</v>
       </c>
       <c r="F369" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G369" s="3">
         <v>3</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I369" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J369" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K369" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L369" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M369" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N369" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O369" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P369" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q369" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R369" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S369" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T369" s="3" t="s">
         <v>34</v>
@@ -59753,40 +59756,40 @@
         <v>2</v>
       </c>
       <c r="G370" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H370" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J370" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K370" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L370" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M370" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N370" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O370" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P370" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q370" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R370" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S370" s="3" t="s">
         <v>34</v>
@@ -59812,13 +59815,13 @@
         <v>412</v>
       </c>
       <c r="F371" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G371" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I371" s="3" t="s">
         <v>35</v>
@@ -59833,13 +59836,13 @@
         <v>35</v>
       </c>
       <c r="M371" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N371" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O371" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P371" s="3" t="s">
         <v>35</v>
@@ -59874,13 +59877,13 @@
         <v>412</v>
       </c>
       <c r="F372" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G372" s="3">
         <v>3</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I372" s="3" t="s">
         <v>35</v>
@@ -59889,19 +59892,19 @@
         <v>35</v>
       </c>
       <c r="K372" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L372" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M372" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N372" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O372" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P372" s="3" t="s">
         <v>35</v>
@@ -59910,13 +59913,13 @@
         <v>35</v>
       </c>
       <c r="R372" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S372" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T372" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="373" spans="1:20" x14ac:dyDescent="0.2">
@@ -59942,16 +59945,16 @@
         <v>2</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J373" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K373" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L373" s="3" t="s">
         <v>35</v>
@@ -59972,10 +59975,10 @@
         <v>35</v>
       </c>
       <c r="R373" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S373" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T373" s="3" t="s">
         <v>34</v>
@@ -59998,25 +60001,25 @@
         <v>413</v>
       </c>
       <c r="F374" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G374" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K374" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M374" s="3" t="s">
         <v>35</v>
@@ -60028,7 +60031,7 @@
         <v>34</v>
       </c>
       <c r="P374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q374" s="3" t="s">
         <v>35</v>
@@ -60040,7 +60043,7 @@
         <v>34</v>
       </c>
       <c r="T374" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="375" spans="1:20" x14ac:dyDescent="0.2">
@@ -60060,16 +60063,16 @@
         <v>413</v>
       </c>
       <c r="F375" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G375" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J375" s="3" t="s">
         <v>35</v>
@@ -60078,28 +60081,28 @@
         <v>34</v>
       </c>
       <c r="L375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M375" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q375" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S375" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T375" s="3" t="s">
         <v>34</v>
@@ -60122,10 +60125,10 @@
         <v>413</v>
       </c>
       <c r="F376" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G376" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>34</v>
@@ -60137,7 +60140,7 @@
         <v>34</v>
       </c>
       <c r="K376" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L376" s="3" t="s">
         <v>34</v>
@@ -60155,7 +60158,7 @@
         <v>34</v>
       </c>
       <c r="Q376" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R376" s="3" t="s">
         <v>34</v>
@@ -60187,13 +60190,13 @@
         <v>3</v>
       </c>
       <c r="G377" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J377" s="3" t="s">
         <v>34</v>
@@ -60220,7 +60223,7 @@
         <v>35</v>
       </c>
       <c r="R377" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S377" s="3" t="s">
         <v>34</v>
@@ -60246,10 +60249,10 @@
         <v>413</v>
       </c>
       <c r="F378" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G378" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>34</v>
@@ -60258,7 +60261,7 @@
         <v>34</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K378" s="3" t="s">
         <v>35</v>
@@ -60267,7 +60270,7 @@
         <v>34</v>
       </c>
       <c r="M378" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N378" s="3" t="s">
         <v>34</v>
@@ -60288,7 +60291,7 @@
         <v>34</v>
       </c>
       <c r="T378" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="379" spans="1:20" x14ac:dyDescent="0.2">
@@ -60311,7 +60314,7 @@
         <v>2</v>
       </c>
       <c r="G379" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H379" s="3" t="s">
         <v>34</v>
@@ -60320,13 +60323,13 @@
         <v>35</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K379" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L379" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M379" s="3" t="s">
         <v>35</v>
@@ -60335,19 +60338,19 @@
         <v>34</v>
       </c>
       <c r="O379" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P379" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q379" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R379" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S379" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T379" s="3" t="s">
         <v>34</v>
@@ -60370,13 +60373,13 @@
         <v>413</v>
       </c>
       <c r="F380" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G380" s="3">
         <v>2</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I380" s="3" t="s">
         <v>35</v>
@@ -60388,7 +60391,7 @@
         <v>34</v>
       </c>
       <c r="L380" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M380" s="3" t="s">
         <v>35</v>
@@ -60400,13 +60403,13 @@
         <v>34</v>
       </c>
       <c r="P380" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q380" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R380" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S380" s="3" t="s">
         <v>34</v>
@@ -60432,19 +60435,19 @@
         <v>413</v>
       </c>
       <c r="F381" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G381" s="3">
         <v>3</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K381" s="3" t="s">
         <v>34</v>
@@ -60459,19 +60462,19 @@
         <v>34</v>
       </c>
       <c r="O381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q381" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S381" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T381" s="3" t="s">
         <v>34</v>
@@ -60494,28 +60497,28 @@
         <v>413</v>
       </c>
       <c r="F382" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G382" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H382" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K382" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L382" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M382" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N382" s="3" t="s">
         <v>34</v>
@@ -60524,10 +60527,10 @@
         <v>34</v>
       </c>
       <c r="P382" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q382" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R382" s="3" t="s">
         <v>34</v>
@@ -60556,10 +60559,10 @@
         <v>413</v>
       </c>
       <c r="F383" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G383" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" s="3" t="s">
         <v>34</v>
@@ -60568,7 +60571,7 @@
         <v>34</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K383" s="3" t="s">
         <v>34</v>
@@ -60577,7 +60580,7 @@
         <v>35</v>
       </c>
       <c r="M383" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N383" s="3" t="s">
         <v>34</v>
@@ -60589,13 +60592,13 @@
         <v>34</v>
       </c>
       <c r="Q383" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R383" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S383" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T383" s="3" t="s">
         <v>34</v>
@@ -60621,13 +60624,13 @@
         <v>2</v>
       </c>
       <c r="G384" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J384" s="3" t="s">
         <v>35</v>
@@ -60636,16 +60639,16 @@
         <v>34</v>
       </c>
       <c r="L384" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M384" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N384" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O384" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P384" s="3" t="s">
         <v>34</v>
@@ -60680,34 +60683,34 @@
         <v>413</v>
       </c>
       <c r="F385" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G385" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H385" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K385" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L385" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M385" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N385" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O385" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P385" s="3" t="s">
         <v>34</v>
@@ -60722,7 +60725,7 @@
         <v>34</v>
       </c>
       <c r="T385" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="386" spans="1:20" x14ac:dyDescent="0.2">
@@ -60742,13 +60745,13 @@
         <v>416</v>
       </c>
       <c r="F386" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G386" s="3">
         <v>3</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I386" s="3" t="s">
         <v>35</v>
@@ -60757,13 +60760,13 @@
         <v>35</v>
       </c>
       <c r="K386" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L386" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M386" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N386" s="3" t="s">
         <v>34</v>
@@ -60778,7 +60781,7 @@
         <v>35</v>
       </c>
       <c r="R386" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S386" s="3" t="s">
         <v>34</v>
@@ -60804,13 +60807,13 @@
         <v>413</v>
       </c>
       <c r="F387" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G387" s="3">
         <v>3</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I387" s="3" t="s">
         <v>34</v>
@@ -60819,7 +60822,7 @@
         <v>35</v>
       </c>
       <c r="K387" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L387" s="3" t="s">
         <v>35</v>
@@ -60840,10 +60843,10 @@
         <v>35</v>
       </c>
       <c r="R387" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S387" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T387" s="3" t="s">
         <v>34</v>
@@ -60869,7 +60872,7 @@
         <v>3</v>
       </c>
       <c r="G388" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>34</v>
@@ -60881,10 +60884,10 @@
         <v>35</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L388" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M388" s="3" t="s">
         <v>35</v>
@@ -60902,10 +60905,10 @@
         <v>35</v>
       </c>
       <c r="R388" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S388" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T388" s="3" t="s">
         <v>34</v>
@@ -60931,7 +60934,7 @@
         <v>3</v>
       </c>
       <c r="G389" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H389" s="3" t="s">
         <v>34</v>
@@ -60940,13 +60943,13 @@
         <v>34</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K389" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L389" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M389" s="3" t="s">
         <v>35</v>
@@ -60955,7 +60958,7 @@
         <v>34</v>
       </c>
       <c r="O389" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P389" s="3" t="s">
         <v>34</v>
@@ -60967,7 +60970,7 @@
         <v>34</v>
       </c>
       <c r="S389" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T389" s="3" t="s">
         <v>34</v>
@@ -60993,7 +60996,7 @@
         <v>3</v>
       </c>
       <c r="G390" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>34</v>
@@ -61002,10 +61005,10 @@
         <v>34</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K390" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L390" s="3" t="s">
         <v>34</v>
@@ -61017,7 +61020,7 @@
         <v>34</v>
       </c>
       <c r="O390" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P390" s="3" t="s">
         <v>34</v>
@@ -61026,10 +61029,10 @@
         <v>35</v>
       </c>
       <c r="R390" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S390" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T390" s="3" t="s">
         <v>34</v>
@@ -61052,34 +61055,34 @@
         <v>413</v>
       </c>
       <c r="F391" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G391" s="3">
         <v>3</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K391" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L391" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M391" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N391" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O391" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P391" s="3" t="s">
         <v>34</v>
@@ -61120,28 +61123,28 @@
         <v>3</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I392" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K392" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M392" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N392" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P392" s="3" t="s">
         <v>34</v>
@@ -61150,13 +61153,13 @@
         <v>35</v>
       </c>
       <c r="R392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S392" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T392" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:20" x14ac:dyDescent="0.2">
@@ -61176,16 +61179,16 @@
         <v>413</v>
       </c>
       <c r="F393" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G393" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J393" s="3" t="s">
         <v>35</v>
@@ -61194,7 +61197,7 @@
         <v>35</v>
       </c>
       <c r="L393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M393" s="3" t="s">
         <v>35</v>
@@ -61203,19 +61206,19 @@
         <v>34</v>
       </c>
       <c r="O393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R393" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S393" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T393" s="3" t="s">
         <v>34</v>
@@ -61247,7 +61250,7 @@
         <v>35</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J394" s="3" t="s">
         <v>35</v>
@@ -61256,10 +61259,10 @@
         <v>35</v>
       </c>
       <c r="L394" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M394" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N394" s="3" t="s">
         <v>34</v>
@@ -61273,8 +61276,8 @@
       <c r="Q394" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R394" s="3" t="s">
-        <v>35</v>
+      <c r="R394" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="S394" s="3" t="s">
         <v>34</v>
@@ -61300,22 +61303,22 @@
         <v>413</v>
       </c>
       <c r="F395" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G395" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I395" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K395" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L395" s="3" t="s">
         <v>34</v>
@@ -61327,19 +61330,19 @@
         <v>34</v>
       </c>
       <c r="O395" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P395" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q395" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R395" s="3" t="s">
-        <v>35</v>
+      <c r="R395" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="S395" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T395" s="3" t="s">
         <v>34</v>
@@ -61362,25 +61365,25 @@
         <v>413</v>
       </c>
       <c r="F396" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G396" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K396" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L396" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M396" s="3" t="s">
         <v>35</v>
@@ -61389,7 +61392,7 @@
         <v>34</v>
       </c>
       <c r="O396" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P396" s="3" t="s">
         <v>34</v>
@@ -61397,11 +61400,11 @@
       <c r="Q396" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R396" s="3" t="s">
+      <c r="R396" s="7" t="s">
         <v>34</v>
       </c>
       <c r="S396" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T396" s="3" t="s">
         <v>34</v>
@@ -61427,19 +61430,19 @@
         <v>2</v>
       </c>
       <c r="G397" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K397" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L397" s="3" t="s">
         <v>34</v>
@@ -61486,19 +61489,19 @@
         <v>413</v>
       </c>
       <c r="F398" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G398" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J398" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K398" s="3" t="s">
         <v>35</v>
@@ -61510,13 +61513,13 @@
         <v>35</v>
       </c>
       <c r="N398" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O398" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P398" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q398" s="3" t="s">
         <v>35</v>
@@ -61551,13 +61554,13 @@
         <v>3</v>
       </c>
       <c r="G399" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J399" s="3" t="s">
         <v>35</v>
@@ -61566,7 +61569,7 @@
         <v>34</v>
       </c>
       <c r="L399" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M399" s="3" t="s">
         <v>35</v>
@@ -61575,7 +61578,7 @@
         <v>35</v>
       </c>
       <c r="O399" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P399" s="3" t="s">
         <v>34</v>
@@ -61587,7 +61590,7 @@
         <v>34</v>
       </c>
       <c r="S399" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T399" s="3" t="s">
         <v>34</v>
@@ -61610,7 +61613,7 @@
         <v>413</v>
       </c>
       <c r="F400" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G400" s="3">
         <v>3</v>
@@ -61619,7 +61622,7 @@
         <v>34</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J400" s="3" t="s">
         <v>35</v>
@@ -61631,10 +61634,10 @@
         <v>34</v>
       </c>
       <c r="M400" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N400" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O400" s="3" t="s">
         <v>34</v>
@@ -61672,7 +61675,7 @@
         <v>413</v>
       </c>
       <c r="F401" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G401" s="3">
         <v>2</v>
@@ -61687,7 +61690,7 @@
         <v>35</v>
       </c>
       <c r="K401" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L401" s="3" t="s">
         <v>34</v>
@@ -61734,10 +61737,10 @@
         <v>413</v>
       </c>
       <c r="F402" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G402" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H402" s="3" t="s">
         <v>34</v>
@@ -61746,7 +61749,7 @@
         <v>35</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>34</v>
@@ -61758,22 +61761,22 @@
         <v>35</v>
       </c>
       <c r="N402" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O402" s="3" t="s">
         <v>34</v>
       </c>
       <c r="P402" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q402" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R402" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S402" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T402" s="3" t="s">
         <v>34</v>
@@ -61796,10 +61799,10 @@
         <v>413</v>
       </c>
       <c r="F403" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G403" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H403" s="3" t="s">
         <v>34</v>
@@ -61829,16 +61832,16 @@
         <v>34</v>
       </c>
       <c r="Q403" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R403" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S403" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T403" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="404" spans="1:20" x14ac:dyDescent="0.2">
@@ -61858,16 +61861,16 @@
         <v>412</v>
       </c>
       <c r="F404" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G404" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J404" s="3" t="s">
         <v>34</v>
@@ -61876,31 +61879,31 @@
         <v>34</v>
       </c>
       <c r="L404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N404" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P404" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q404" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S404" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T404" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405" spans="1:20" x14ac:dyDescent="0.2">
@@ -61920,13 +61923,13 @@
         <v>413</v>
       </c>
       <c r="F405" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G405" s="3">
         <v>3</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I405" s="3" t="s">
         <v>34</v>
@@ -61938,19 +61941,19 @@
         <v>34</v>
       </c>
       <c r="L405" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M405" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N405" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O405" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P405" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q405" s="3" t="s">
         <v>35</v>
@@ -61982,22 +61985,22 @@
         <v>412</v>
       </c>
       <c r="F406" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G406" s="3">
         <v>3</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J406" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K406" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L406" s="3" t="s">
         <v>35</v>
@@ -62009,7 +62012,7 @@
         <v>34</v>
       </c>
       <c r="O406" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P406" s="3" t="s">
         <v>34</v>
@@ -62056,7 +62059,7 @@
         <v>35</v>
       </c>
       <c r="J407" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K407" s="3" t="s">
         <v>35</v>
@@ -62071,10 +62074,10 @@
         <v>34</v>
       </c>
       <c r="O407" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P407" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q407" s="3" t="s">
         <v>35</v>
@@ -62112,7 +62115,7 @@
         <v>3</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I408" s="3" t="s">
         <v>34</v>
@@ -62133,7 +62136,7 @@
         <v>34</v>
       </c>
       <c r="O408" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P408" s="3" t="s">
         <v>34</v>
@@ -62168,7 +62171,7 @@
         <v>413</v>
       </c>
       <c r="F409" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G409" s="3">
         <v>2</v>
@@ -62180,13 +62183,13 @@
         <v>34</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K409" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L409" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M409" s="3" t="s">
         <v>35</v>
@@ -62198,7 +62201,7 @@
         <v>34</v>
       </c>
       <c r="P409" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q409" s="3" t="s">
         <v>35</v>
@@ -62230,19 +62233,19 @@
         <v>413</v>
       </c>
       <c r="F410" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G410" s="3">
         <v>3</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I410" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J410" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K410" s="3" t="s">
         <v>35</v>
@@ -62251,10 +62254,10 @@
         <v>35</v>
       </c>
       <c r="M410" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N410" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O410" s="3" t="s">
         <v>35</v>
@@ -62266,7 +62269,7 @@
         <v>35</v>
       </c>
       <c r="R410" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S410" s="3" t="s">
         <v>34</v>
@@ -62298,7 +62301,7 @@
         <v>3</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I411" s="3" t="s">
         <v>35</v>
@@ -62307,7 +62310,7 @@
         <v>35</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L411" s="3" t="s">
         <v>35</v>
@@ -62328,13 +62331,13 @@
         <v>35</v>
       </c>
       <c r="R411" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S411" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T411" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:20" x14ac:dyDescent="0.2">
@@ -62363,34 +62366,34 @@
         <v>35</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J412" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N412" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q412" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R412" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S412" s="3" t="s">
         <v>34</v>
@@ -62416,28 +62419,28 @@
         <v>416</v>
       </c>
       <c r="F413" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G413" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H413" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J413" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K413" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L413" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M413" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N413" s="3" t="s">
         <v>34</v>
@@ -62452,13 +62455,13 @@
         <v>35</v>
       </c>
       <c r="R413" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S413" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T413" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="414" spans="1:20" x14ac:dyDescent="0.2">
@@ -62481,10 +62484,10 @@
         <v>3</v>
       </c>
       <c r="G414" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I414" s="3" t="s">
         <v>35</v>
@@ -62493,7 +62496,7 @@
         <v>35</v>
       </c>
       <c r="K414" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L414" s="3" t="s">
         <v>35</v>
@@ -62505,7 +62508,7 @@
         <v>34</v>
       </c>
       <c r="O414" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P414" s="3" t="s">
         <v>34</v>
@@ -62514,7 +62517,7 @@
         <v>35</v>
       </c>
       <c r="R414" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S414" s="3" t="s">
         <v>34</v>
@@ -62546,19 +62549,19 @@
         <v>3</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K415" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L415" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M415" s="3" t="s">
         <v>35</v>
@@ -62602,10 +62605,10 @@
         <v>413</v>
       </c>
       <c r="F416" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G416" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>34</v>
@@ -62638,7 +62641,7 @@
         <v>35</v>
       </c>
       <c r="R416" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S416" s="3" t="s">
         <v>34</v>
@@ -62664,25 +62667,25 @@
         <v>413</v>
       </c>
       <c r="F417" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G417" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H417" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K417" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L417" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M417" s="3" t="s">
         <v>35</v>
@@ -62691,7 +62694,7 @@
         <v>34</v>
       </c>
       <c r="O417" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P417" s="3" t="s">
         <v>34</v>
@@ -62726,7 +62729,7 @@
         <v>413</v>
       </c>
       <c r="F418" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G418" s="3">
         <v>3</v>
@@ -62735,25 +62738,25 @@
         <v>34</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J418" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K418" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L418" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M418" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N418" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O418" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P418" s="3" t="s">
         <v>34</v>
@@ -62800,7 +62803,7 @@
         <v>35</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K419" s="3" t="s">
         <v>35</v>
@@ -62830,7 +62833,7 @@
         <v>34</v>
       </c>
       <c r="T419" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.2">
@@ -62853,22 +62856,22 @@
         <v>2</v>
       </c>
       <c r="G420" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J420" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K420" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L420" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M420" s="3" t="s">
         <v>35</v>
@@ -62880,7 +62883,7 @@
         <v>34</v>
       </c>
       <c r="P420" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q420" s="3" t="s">
         <v>35</v>
@@ -62921,7 +62924,7 @@
         <v>34</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J421" s="3" t="s">
         <v>35</v>
@@ -62930,10 +62933,10 @@
         <v>35</v>
       </c>
       <c r="L421" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M421" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N421" s="3" t="s">
         <v>34</v>
@@ -62980,10 +62983,10 @@
         <v>3</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J422" s="3" t="s">
         <v>35</v>
@@ -62995,13 +62998,13 @@
         <v>35</v>
       </c>
       <c r="M422" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N422" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O422" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P422" s="3" t="s">
         <v>35</v>
@@ -63039,7 +63042,7 @@
         <v>3</v>
       </c>
       <c r="G423" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H423" s="3" t="s">
         <v>34</v>
@@ -63051,10 +63054,10 @@
         <v>34</v>
       </c>
       <c r="K423" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L423" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M423" s="3" t="s">
         <v>35</v>
@@ -63098,16 +63101,16 @@
         <v>413</v>
       </c>
       <c r="F424" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G424" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J424" s="3" t="s">
         <v>34</v>
@@ -63116,7 +63119,7 @@
         <v>34</v>
       </c>
       <c r="L424" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M424" s="3" t="s">
         <v>35</v>
@@ -63163,19 +63166,19 @@
         <v>2</v>
       </c>
       <c r="G425" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H425" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J425" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K425" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L425" s="3" t="s">
         <v>34</v>
@@ -63190,10 +63193,10 @@
         <v>34</v>
       </c>
       <c r="P425" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q425" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R425" s="3" t="s">
         <v>34</v>
@@ -63202,7 +63205,7 @@
         <v>34</v>
       </c>
       <c r="T425" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.2">
@@ -63231,13 +63234,13 @@
         <v>34</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J426" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K426" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L426" s="3" t="s">
         <v>35</v>
@@ -63249,7 +63252,7 @@
         <v>34</v>
       </c>
       <c r="O426" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P426" s="3" t="s">
         <v>34</v>
@@ -63261,10 +63264,10 @@
         <v>34</v>
       </c>
       <c r="S426" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T426" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="427" spans="1:20" x14ac:dyDescent="0.2">
@@ -63296,22 +63299,22 @@
         <v>35</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K427" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L427" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M427" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N427" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O427" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P427" s="3" t="s">
         <v>35</v>
@@ -63326,7 +63329,7 @@
         <v>34</v>
       </c>
       <c r="T427" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.2">
@@ -63352,13 +63355,13 @@
         <v>3</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K428" s="3" t="s">
         <v>35</v>
@@ -63367,28 +63370,28 @@
         <v>34</v>
       </c>
       <c r="M428" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N428" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O428" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P428" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q428" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R428" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S428" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T428" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.2">
@@ -63408,10 +63411,10 @@
         <v>413</v>
       </c>
       <c r="F429" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G429" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H429" s="3" t="s">
         <v>34</v>
@@ -63420,16 +63423,16 @@
         <v>34</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K429" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L429" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M429" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N429" s="3" t="s">
         <v>34</v>
@@ -63447,10 +63450,10 @@
         <v>34</v>
       </c>
       <c r="S429" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T429" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="430" spans="1:20" x14ac:dyDescent="0.2">
@@ -63473,22 +63476,22 @@
         <v>3</v>
       </c>
       <c r="G430" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K430" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M430" s="3" t="s">
         <v>35</v>
@@ -63497,13 +63500,13 @@
         <v>34</v>
       </c>
       <c r="O430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P430" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q430" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R430" s="3" t="s">
         <v>34</v>
@@ -63532,7 +63535,7 @@
         <v>412</v>
       </c>
       <c r="F431" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G431" s="3">
         <v>3</v>
@@ -63541,13 +63544,13 @@
         <v>35</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J431" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K431" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L431" s="3" t="s">
         <v>35</v>
@@ -63559,7 +63562,7 @@
         <v>34</v>
       </c>
       <c r="O431" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P431" s="3" t="s">
         <v>34</v>
@@ -63594,34 +63597,34 @@
         <v>416</v>
       </c>
       <c r="F432" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G432" s="3">
         <v>3</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K432" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M432" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P432" s="3" t="s">
         <v>34</v>
@@ -63633,7 +63636,7 @@
         <v>34</v>
       </c>
       <c r="S432" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T432" s="3" t="s">
         <v>34</v>
@@ -63656,28 +63659,28 @@
         <v>412</v>
       </c>
       <c r="F433" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G433" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K433" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N433" s="3" t="s">
         <v>34</v>
@@ -63698,7 +63701,7 @@
         <v>34</v>
       </c>
       <c r="T433" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.2">
@@ -63721,7 +63724,7 @@
         <v>3</v>
       </c>
       <c r="G434" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H434" s="3" t="s">
         <v>34</v>
@@ -63730,28 +63733,28 @@
         <v>35</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K434" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L434" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M434" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N434" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O434" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P434" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q434" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R434" s="3" t="s">
         <v>34</v>
@@ -63783,22 +63786,22 @@
         <v>3</v>
       </c>
       <c r="G435" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H435" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K435" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L435" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M435" s="3" t="s">
         <v>35</v>
@@ -63807,19 +63810,19 @@
         <v>34</v>
       </c>
       <c r="O435" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P435" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q435" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R435" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S435" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T435" s="3" t="s">
         <v>34</v>
@@ -63842,7 +63845,7 @@
         <v>413</v>
       </c>
       <c r="F436" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G436" s="3">
         <v>3</v>
@@ -63854,22 +63857,22 @@
         <v>34</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K436" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L436" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M436" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N436" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O436" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P436" s="3" t="s">
         <v>34</v>
@@ -63881,7 +63884,7 @@
         <v>34</v>
       </c>
       <c r="S436" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T436" s="3" t="s">
         <v>34</v>
@@ -63913,25 +63916,25 @@
         <v>34</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K437" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N437" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P437" s="3" t="s">
         <v>34</v>
@@ -63946,7 +63949,7 @@
         <v>34</v>
       </c>
       <c r="T437" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.2">
@@ -63966,37 +63969,37 @@
         <v>412</v>
       </c>
       <c r="F438" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G438" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N438" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P438" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q438" s="3" t="s">
         <v>35</v>
@@ -64034,37 +64037,37 @@
         <v>3</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I439" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K439" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L439" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M439" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N439" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O439" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P439" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q439" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R439" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S439" s="3" t="s">
         <v>34</v>
@@ -64090,7 +64093,7 @@
         <v>413</v>
       </c>
       <c r="F440" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G440" s="3">
         <v>3</v>
@@ -64102,7 +64105,7 @@
         <v>34</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K440" s="3" t="s">
         <v>35</v>
@@ -64114,10 +64117,10 @@
         <v>35</v>
       </c>
       <c r="N440" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O440" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P440" s="3" t="s">
         <v>34</v>
@@ -64126,13 +64129,13 @@
         <v>35</v>
       </c>
       <c r="R440" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S440" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T440" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.2">
@@ -64152,7 +64155,7 @@
         <v>413</v>
       </c>
       <c r="F441" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G441" s="3">
         <v>3</v>
@@ -64161,16 +64164,16 @@
         <v>34</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M441" s="3" t="s">
         <v>35</v>
@@ -64179,10 +64182,10 @@
         <v>34</v>
       </c>
       <c r="O441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q441" s="3" t="s">
         <v>35</v>
@@ -64194,7 +64197,7 @@
         <v>34</v>
       </c>
       <c r="T441" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.2">
@@ -64214,7 +64217,7 @@
         <v>418</v>
       </c>
       <c r="F442" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G442" s="3">
         <v>3</v>
@@ -64232,7 +64235,7 @@
         <v>34</v>
       </c>
       <c r="L442" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M442" s="3" t="s">
         <v>35</v>
@@ -64241,10 +64244,10 @@
         <v>34</v>
       </c>
       <c r="O442" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P442" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q442" s="3" t="s">
         <v>35</v>
@@ -64276,22 +64279,22 @@
         <v>416</v>
       </c>
       <c r="F443" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G443" s="3">
         <v>3</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J443" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K443" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L443" s="3" t="s">
         <v>35</v>
@@ -64306,19 +64309,19 @@
         <v>35</v>
       </c>
       <c r="P443" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q443" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R443" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S443" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T443" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.2">
@@ -64338,25 +64341,25 @@
         <v>413</v>
       </c>
       <c r="F444" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G444" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J444" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K444" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L444" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M444" s="3" t="s">
         <v>35</v>
@@ -64365,7 +64368,7 @@
         <v>34</v>
       </c>
       <c r="O444" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P444" s="3" t="s">
         <v>34</v>
@@ -64374,7 +64377,7 @@
         <v>35</v>
       </c>
       <c r="R444" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S444" s="3" t="s">
         <v>34</v>
@@ -64400,13 +64403,13 @@
         <v>412</v>
       </c>
       <c r="F445" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G445" s="3">
         <v>3</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I445" s="3" t="s">
         <v>35</v>
@@ -64415,19 +64418,19 @@
         <v>35</v>
       </c>
       <c r="K445" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L445" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M445" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N445" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O445" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P445" s="3" t="s">
         <v>35</v>
@@ -64436,13 +64439,13 @@
         <v>35</v>
       </c>
       <c r="R445" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S445" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T445" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.2">
@@ -64468,7 +64471,7 @@
         <v>3</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I446" s="3" t="s">
         <v>34</v>
@@ -64477,22 +64480,22 @@
         <v>35</v>
       </c>
       <c r="K446" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L446" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M446" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N446" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O446" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P446" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q446" s="3" t="s">
         <v>35</v>
@@ -64501,7 +64504,7 @@
         <v>34</v>
       </c>
       <c r="S446" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T446" s="3" t="s">
         <v>34</v>
@@ -64524,7 +64527,7 @@
         <v>412</v>
       </c>
       <c r="F447" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G447" s="3">
         <v>3</v>
@@ -64533,13 +64536,13 @@
         <v>35</v>
       </c>
       <c r="I447" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K447" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L447" s="3" t="s">
         <v>35</v>
@@ -64548,10 +64551,10 @@
         <v>35</v>
       </c>
       <c r="N447" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O447" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P447" s="3" t="s">
         <v>35</v>
@@ -64563,7 +64566,7 @@
         <v>34</v>
       </c>
       <c r="S447" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T447" s="3" t="s">
         <v>34</v>
@@ -64586,37 +64589,37 @@
         <v>418</v>
       </c>
       <c r="F448" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G448" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I448" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K448" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L448" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M448" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N448" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O448" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P448" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q448" s="3" t="s">
         <v>35</v>
@@ -64648,16 +64651,16 @@
         <v>412</v>
       </c>
       <c r="F449" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G449" s="3">
         <v>3</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J449" s="3" t="s">
         <v>35</v>
@@ -64669,22 +64672,22 @@
         <v>35</v>
       </c>
       <c r="M449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N449" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q449" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R449" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S449" s="3" t="s">
         <v>34</v>
@@ -64710,13 +64713,13 @@
         <v>413</v>
       </c>
       <c r="F450" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G450" s="3">
         <v>3</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I450" s="3" t="s">
         <v>34</v>
@@ -64725,7 +64728,7 @@
         <v>35</v>
       </c>
       <c r="K450" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L450" s="3" t="s">
         <v>35</v>
@@ -64737,7 +64740,7 @@
         <v>34</v>
       </c>
       <c r="O450" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P450" s="3" t="s">
         <v>34</v>
@@ -64746,13 +64749,13 @@
         <v>35</v>
       </c>
       <c r="R450" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S450" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T450" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.2">
@@ -64772,13 +64775,13 @@
         <v>413</v>
       </c>
       <c r="F451" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G451" s="3">
         <v>3</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I451" s="3" t="s">
         <v>35</v>
@@ -64787,7 +64790,7 @@
         <v>35</v>
       </c>
       <c r="K451" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L451" s="3" t="s">
         <v>35</v>
@@ -64834,7 +64837,7 @@
         <v>412</v>
       </c>
       <c r="F452" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G452" s="3">
         <v>3</v>
@@ -64843,34 +64846,34 @@
         <v>35</v>
       </c>
       <c r="I452" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J452" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K452" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L452" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M452" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N452" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O452" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P452" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q452" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R452" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S452" s="3" t="s">
         <v>34</v>
@@ -64899,22 +64902,22 @@
         <v>2</v>
       </c>
       <c r="G453" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K453" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M453" s="3" t="s">
         <v>35</v>
@@ -64923,22 +64926,22 @@
         <v>34</v>
       </c>
       <c r="O453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P453" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Q453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S453" s="3" t="s">
         <v>34</v>
       </c>
       <c r="T453" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.2">
@@ -64958,37 +64961,37 @@
         <v>418</v>
       </c>
       <c r="F454" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G454" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M454" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N454" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P454" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q454" s="3" t="s">
         <v>35</v>
@@ -65020,25 +65023,25 @@
         <v>416</v>
       </c>
       <c r="F455" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G455" s="3">
         <v>3</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M455" s="3" t="s">
         <v>35</v>
@@ -65047,10 +65050,10 @@
         <v>34</v>
       </c>
       <c r="O455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P455" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q455" s="3" t="s">
         <v>35</v>
@@ -65088,16 +65091,16 @@
         <v>3</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K456" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L456" s="3" t="s">
         <v>35</v>
@@ -65124,7 +65127,7 @@
         <v>34</v>
       </c>
       <c r="T456" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.2">
@@ -65144,25 +65147,25 @@
         <v>416</v>
       </c>
       <c r="F457" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G457" s="3">
         <v>3</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I457" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J457" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K457" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L457" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M457" s="3" t="s">
         <v>35</v>
@@ -65171,7 +65174,7 @@
         <v>34</v>
       </c>
       <c r="O457" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P457" s="3" t="s">
         <v>34</v>
@@ -65206,16 +65209,16 @@
         <v>413</v>
       </c>
       <c r="F458" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G458" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J458" s="3" t="s">
         <v>35</v>
@@ -65224,7 +65227,7 @@
         <v>34</v>
       </c>
       <c r="L458" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M458" s="3" t="s">
         <v>35</v>
@@ -65236,16 +65239,16 @@
         <v>34</v>
       </c>
       <c r="P458" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q458" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R458" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S458" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T458" s="3" t="s">
         <v>34</v>
@@ -65274,7 +65277,7 @@
         <v>3</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I459" s="3" t="s">
         <v>34</v>
@@ -65283,7 +65286,7 @@
         <v>35</v>
       </c>
       <c r="K459" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L459" s="3" t="s">
         <v>34</v>
@@ -65333,22 +65336,22 @@
         <v>3</v>
       </c>
       <c r="G460" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H460" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I460" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K460" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M460" s="3" t="s">
         <v>35</v>
@@ -65357,19 +65360,19 @@
         <v>34</v>
       </c>
       <c r="O460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P460" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S460" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T460" s="3" t="s">
         <v>34</v>
@@ -65395,16 +65398,16 @@
         <v>3</v>
       </c>
       <c r="G461" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H461" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I461" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K461" s="3" t="s">
         <v>34</v>
@@ -65416,7 +65419,7 @@
         <v>35</v>
       </c>
       <c r="N461" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O461" s="3" t="s">
         <v>34</v>
@@ -65425,7 +65428,7 @@
         <v>34</v>
       </c>
       <c r="Q461" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R461" s="3" t="s">
         <v>34</v>
@@ -65434,7 +65437,7 @@
         <v>34</v>
       </c>
       <c r="T461" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.2">
@@ -65457,40 +65460,40 @@
         <v>3</v>
       </c>
       <c r="G462" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K462" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N462" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R462" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S462" s="3" t="s">
         <v>34</v>
@@ -65528,13 +65531,13 @@
         <v>34</v>
       </c>
       <c r="J463" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K463" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L463" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M463" s="3" t="s">
         <v>35</v>
@@ -65581,22 +65584,22 @@
         <v>3</v>
       </c>
       <c r="G464" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J464" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K464" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L464" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M464" s="3" t="s">
         <v>35</v>
@@ -65670,13 +65673,13 @@
         <v>34</v>
       </c>
       <c r="P465" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q465" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R465" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S465" s="3" t="s">
         <v>34</v>
@@ -65705,22 +65708,22 @@
         <v>3</v>
       </c>
       <c r="G466" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H466" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J466" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K466" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L466" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M466" s="3" t="s">
         <v>35</v>
@@ -65767,7 +65770,7 @@
         <v>3</v>
       </c>
       <c r="G467" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H467" s="3" t="s">
         <v>34</v>
@@ -65776,16 +65779,16 @@
         <v>34</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K467" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L467" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M467" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N467" s="3" t="s">
         <v>34</v>
@@ -65826,13 +65829,13 @@
         <v>413</v>
       </c>
       <c r="F468" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G468" s="3">
         <v>3</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I468" s="3" t="s">
         <v>34</v>
@@ -65841,7 +65844,7 @@
         <v>35</v>
       </c>
       <c r="K468" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L468" s="3" t="s">
         <v>35</v>
@@ -65850,7 +65853,7 @@
         <v>35</v>
       </c>
       <c r="N468" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O468" s="3" t="s">
         <v>34</v>
@@ -65862,7 +65865,7 @@
         <v>35</v>
       </c>
       <c r="R468" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S468" s="3" t="s">
         <v>34</v>
@@ -65903,7 +65906,7 @@
         <v>35</v>
       </c>
       <c r="K469" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L469" s="3" t="s">
         <v>35</v>
@@ -65927,7 +65930,7 @@
         <v>34</v>
       </c>
       <c r="S469" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T469" s="3" t="s">
         <v>34</v>
@@ -65956,22 +65959,22 @@
         <v>2</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K470" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L470" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M470" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N470" s="3" t="s">
         <v>34</v>
@@ -65980,16 +65983,16 @@
         <v>34</v>
       </c>
       <c r="P470" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q470" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R470" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S470" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T470" s="3" t="s">
         <v>34</v>
@@ -66012,10 +66015,10 @@
         <v>413</v>
       </c>
       <c r="F471" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G471" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H471" s="3" t="s">
         <v>34</v>
@@ -66024,10 +66027,10 @@
         <v>34</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K471" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L471" s="3" t="s">
         <v>35</v>
@@ -66039,7 +66042,7 @@
         <v>34</v>
       </c>
       <c r="O471" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P471" s="3" t="s">
         <v>34</v>
@@ -66074,13 +66077,13 @@
         <v>413</v>
       </c>
       <c r="F472" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G472" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I472" s="3" t="s">
         <v>34</v>
@@ -66095,7 +66098,7 @@
         <v>35</v>
       </c>
       <c r="M472" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N472" s="3" t="s">
         <v>34</v>
@@ -66107,13 +66110,13 @@
         <v>34</v>
       </c>
       <c r="Q472" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R472" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S472" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T472" s="3" t="s">
         <v>34</v>
@@ -66136,7 +66139,7 @@
         <v>413</v>
       </c>
       <c r="F473" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G473" s="3">
         <v>3</v>
@@ -66145,7 +66148,7 @@
         <v>34</v>
       </c>
       <c r="I473" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J473" s="3" t="s">
         <v>35</v>
@@ -66154,7 +66157,7 @@
         <v>34</v>
       </c>
       <c r="L473" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M473" s="3" t="s">
         <v>35</v>
@@ -66163,7 +66166,7 @@
         <v>34</v>
       </c>
       <c r="O473" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P473" s="3" t="s">
         <v>34</v>
@@ -66210,10 +66213,10 @@
         <v>34</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K474" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L474" s="3" t="s">
         <v>35</v>
@@ -66228,7 +66231,7 @@
         <v>34</v>
       </c>
       <c r="P474" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q474" s="3" t="s">
         <v>35</v>
@@ -66263,13 +66266,13 @@
         <v>3</v>
       </c>
       <c r="G475" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J475" s="3" t="s">
         <v>35</v>
@@ -66278,7 +66281,7 @@
         <v>34</v>
       </c>
       <c r="L475" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M475" s="3" t="s">
         <v>35</v>
@@ -66325,7 +66328,7 @@
         <v>3</v>
       </c>
       <c r="G476" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H476" s="3" t="s">
         <v>35</v>
@@ -66387,10 +66390,10 @@
         <v>3</v>
       </c>
       <c r="G477" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I477" s="3" t="s">
         <v>34</v>
@@ -66399,13 +66402,13 @@
         <v>35</v>
       </c>
       <c r="K477" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L477" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M477" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N477" s="3" t="s">
         <v>34</v>
@@ -66423,7 +66426,7 @@
         <v>34</v>
       </c>
       <c r="S477" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T477" s="3" t="s">
         <v>34</v>
@@ -66446,28 +66449,28 @@
         <v>413</v>
       </c>
       <c r="F478" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G478" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J478" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K478" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L478" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M478" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N478" s="3" t="s">
         <v>34</v>
@@ -66476,16 +66479,16 @@
         <v>34</v>
       </c>
       <c r="P478" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q478" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R478" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S478" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T478" s="3" t="s">
         <v>34</v>
@@ -66508,10 +66511,10 @@
         <v>412</v>
       </c>
       <c r="F479" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G479" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H479" s="3" t="s">
         <v>34</v>
@@ -66523,7 +66526,7 @@
         <v>35</v>
       </c>
       <c r="K479" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L479" s="3" t="s">
         <v>35</v>
@@ -66576,16 +66579,16 @@
         <v>3</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I480" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J480" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K480" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L480" s="3" t="s">
         <v>34</v>
@@ -66638,16 +66641,16 @@
         <v>3</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I481" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J481" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K481" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L481" s="3" t="s">
         <v>35</v>
@@ -66662,7 +66665,7 @@
         <v>34</v>
       </c>
       <c r="P481" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q481" s="3" t="s">
         <v>35</v>
@@ -66700,10 +66703,10 @@
         <v>3</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I482" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J482" s="3" t="s">
         <v>35</v>
@@ -66718,7 +66721,7 @@
         <v>35</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O482" s="3" t="s">
         <v>35</v>
@@ -66736,7 +66739,7 @@
         <v>34</v>
       </c>
       <c r="T482" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.2">
@@ -66756,22 +66759,22 @@
         <v>413</v>
       </c>
       <c r="F483" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G483" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H483" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I483" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J483" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K483" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L483" s="3" t="s">
         <v>34</v>
@@ -66789,10 +66792,10 @@
         <v>34</v>
       </c>
       <c r="Q483" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R483" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S483" s="3" t="s">
         <v>34</v>
@@ -66818,7 +66821,7 @@
         <v>413</v>
       </c>
       <c r="F484" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G484" s="3">
         <v>3</v>
@@ -66833,7 +66836,7 @@
         <v>35</v>
       </c>
       <c r="K484" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L484" s="3" t="s">
         <v>35</v>
@@ -66845,7 +66848,7 @@
         <v>34</v>
       </c>
       <c r="O484" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P484" s="3" t="s">
         <v>34</v>
@@ -66880,7 +66883,7 @@
         <v>413</v>
       </c>
       <c r="F485" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G485" s="3">
         <v>3</v>
@@ -66892,7 +66895,7 @@
         <v>34</v>
       </c>
       <c r="J485" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K485" s="3" t="s">
         <v>34</v>
@@ -66901,7 +66904,7 @@
         <v>34</v>
       </c>
       <c r="M485" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N485" s="3" t="s">
         <v>34</v>
@@ -66942,13 +66945,13 @@
         <v>413</v>
       </c>
       <c r="F486" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G486" s="3">
         <v>3</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I486" s="3" t="s">
         <v>34</v>
@@ -66957,19 +66960,19 @@
         <v>35</v>
       </c>
       <c r="K486" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L486" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M486" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N486" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O486" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P486" s="3" t="s">
         <v>34</v>
@@ -67004,28 +67007,28 @@
         <v>413</v>
       </c>
       <c r="F487" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G487" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J487" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K487" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L487" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M487" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N487" s="3" t="s">
         <v>34</v>
@@ -67066,25 +67069,25 @@
         <v>412</v>
       </c>
       <c r="F488" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G488" s="3">
         <v>3</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I488" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J488" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K488" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L488" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M488" s="3" t="s">
         <v>35</v>
@@ -67093,7 +67096,7 @@
         <v>34</v>
       </c>
       <c r="O488" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P488" s="3" t="s">
         <v>34</v>
@@ -67108,7 +67111,7 @@
         <v>34</v>
       </c>
       <c r="T488" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="489" spans="1:20" x14ac:dyDescent="0.2">
@@ -67149,7 +67152,7 @@
         <v>35</v>
       </c>
       <c r="M489" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N489" s="3" t="s">
         <v>34</v>
@@ -67164,7 +67167,7 @@
         <v>35</v>
       </c>
       <c r="R489" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S489" s="3" t="s">
         <v>34</v>
@@ -67190,7 +67193,7 @@
         <v>413</v>
       </c>
       <c r="F490" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G490" s="3">
         <v>3</v>
@@ -67205,10 +67208,10 @@
         <v>35</v>
       </c>
       <c r="K490" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L490" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M490" s="3" t="s">
         <v>35</v>
@@ -67217,7 +67220,7 @@
         <v>34</v>
       </c>
       <c r="O490" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P490" s="3" t="s">
         <v>34</v>
@@ -67229,10 +67232,10 @@
         <v>34</v>
       </c>
       <c r="S490" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T490" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="491" spans="1:20" x14ac:dyDescent="0.2">
@@ -67252,7 +67255,7 @@
         <v>413</v>
       </c>
       <c r="F491" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G491" s="3">
         <v>3</v>
@@ -67264,13 +67267,13 @@
         <v>34</v>
       </c>
       <c r="J491" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K491" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L491" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M491" s="3" t="s">
         <v>35</v>
@@ -67294,7 +67297,7 @@
         <v>34</v>
       </c>
       <c r="T491" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.2">
@@ -67314,13 +67317,13 @@
         <v>413</v>
       </c>
       <c r="F492" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G492" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I492" s="3" t="s">
         <v>34</v>
@@ -67329,13 +67332,13 @@
         <v>35</v>
       </c>
       <c r="K492" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L492" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M492" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N492" s="3" t="s">
         <v>34</v>
@@ -67391,7 +67394,7 @@
         <v>34</v>
       </c>
       <c r="K493" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L493" s="3" t="s">
         <v>34</v>
@@ -67438,7 +67441,7 @@
         <v>413</v>
       </c>
       <c r="F494" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G494" s="3">
         <v>3</v>
@@ -67447,16 +67450,16 @@
         <v>34</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J494" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K494" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L494" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M494" s="3" t="s">
         <v>35</v>
@@ -67465,16 +67468,16 @@
         <v>34</v>
       </c>
       <c r="O494" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P494" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q494" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R494" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S494" s="3" t="s">
         <v>34</v>
@@ -67500,7 +67503,7 @@
         <v>413</v>
       </c>
       <c r="F495" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G495" s="3">
         <v>3</v>
@@ -67512,13 +67515,13 @@
         <v>34</v>
       </c>
       <c r="J495" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K495" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L495" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M495" s="3" t="s">
         <v>35</v>
@@ -67527,7 +67530,7 @@
         <v>34</v>
       </c>
       <c r="O495" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P495" s="3" t="s">
         <v>34</v>
@@ -67542,7 +67545,7 @@
         <v>34</v>
       </c>
       <c r="T495" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="496" spans="1:20" x14ac:dyDescent="0.2">
@@ -67568,7 +67571,7 @@
         <v>3</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I496" s="3" t="s">
         <v>34</v>
@@ -67589,7 +67592,7 @@
         <v>34</v>
       </c>
       <c r="O496" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P496" s="3" t="s">
         <v>34</v>
@@ -67624,10 +67627,10 @@
         <v>413</v>
       </c>
       <c r="F497" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G497" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H497" s="3" t="s">
         <v>34</v>
@@ -67636,13 +67639,13 @@
         <v>34</v>
       </c>
       <c r="J497" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K497" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L497" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M497" s="3" t="s">
         <v>35</v>
@@ -67651,16 +67654,16 @@
         <v>34</v>
       </c>
       <c r="O497" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P497" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q497" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R497" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S497" s="3" t="s">
         <v>34</v>
@@ -67695,7 +67698,7 @@
         <v>34</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J498" s="3" t="s">
         <v>35</v>
@@ -67707,13 +67710,13 @@
         <v>35</v>
       </c>
       <c r="M498" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N498" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O498" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P498" s="3" t="s">
         <v>34</v>
@@ -67722,7 +67725,7 @@
         <v>35</v>
       </c>
       <c r="R498" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S498" s="3" t="s">
         <v>34</v>
@@ -67748,25 +67751,25 @@
         <v>413</v>
       </c>
       <c r="F499" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G499" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H499" s="3" t="s">
         <v>34</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J499" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K499" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L499" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M499" s="3" t="s">
         <v>35</v>
@@ -67775,19 +67778,19 @@
         <v>34</v>
       </c>
       <c r="O499" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P499" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q499" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R499" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S499" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T499" s="3" t="s">
         <v>34</v>
@@ -67828,7 +67831,7 @@
         <v>34</v>
       </c>
       <c r="L500" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M500" s="3" t="s">
         <v>35</v>
@@ -67837,22 +67840,22 @@
         <v>34</v>
       </c>
       <c r="O500" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P500" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q500" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R500" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S500" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T500" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.2">
@@ -67872,10 +67875,10 @@
         <v>413</v>
       </c>
       <c r="F501" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G501" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H501" s="3" t="s">
         <v>34</v>
@@ -67884,13 +67887,13 @@
         <v>34</v>
       </c>
       <c r="J501" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K501" s="3" t="s">
         <v>34</v>
       </c>
       <c r="L501" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M501" s="3" t="s">
         <v>35</v>
@@ -67899,7 +67902,7 @@
         <v>34</v>
       </c>
       <c r="O501" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P501" s="3" t="s">
         <v>34</v>

--- a/Stimuli Metadata/500-Stimuli-Metadata.xlsx
+++ b/Stimuli Metadata/500-Stimuli-Metadata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aarunku5/Documents/GitHub/Image-or-Information-Vis-2023/Stimuli Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7DC425-AF64-4548-939A-699FE79E0A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3143DD91-3025-6E40-8D25-51CD1E845C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16940" yWindow="740" windowWidth="12460" windowHeight="16840" activeTab="2" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{59EB8DD1-A37D-5C45-8918-474D45031E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Provenance and Purpose" sheetId="1" r:id="rId1"/>
-    <sheet name="Visual Elements" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Elements" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Visual Elements" sheetId="2" r:id="rId3"/>
+    <sheet name="Data Elements" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15542" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15610" uniqueCount="420">
   <si>
     <t>Name</t>
   </si>
@@ -1420,9 +1421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1460,7 +1461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1566,7 +1567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1708,7 +1709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1719,8 +1720,8 @@
   <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14767,6 +14768,362 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B568F6-6FDE-5743-BA5D-888B4412498B}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>206</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>459</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>460</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D640CFDF-419A-294C-837F-8F284BCB6B1A}">
   <dimension ref="A1:N501"/>
   <sheetViews>
@@ -36832,12 +37189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3050645B-9444-7441-AD4C-0BD23B188D0D}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T501" sqref="T501"/>
     </sheetView>
   </sheetViews>
